--- a/data/egret_BW.xlsx
+++ b/data/egret_BW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/Temporal Ecology Lab/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807A6CEB-B636-9843-A328-D721209FDBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2BCE26-3A9E-154E-9E87-1BC91219AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta_general" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7950" uniqueCount="2633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8266" uniqueCount="2637">
   <si>
     <t>datasetID</t>
   </si>
@@ -7933,6 +7933,18 @@
   </si>
   <si>
     <t>melongena</t>
+  </si>
+  <si>
+    <t>exp2</t>
+  </si>
+  <si>
+    <t>exp3</t>
+  </si>
+  <si>
+    <t>emergence rate</t>
+  </si>
+  <si>
+    <t>table 5</t>
   </si>
 </sst>
 </file>
@@ -8481,7 +8493,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8503,10 +8515,6 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8884,8 +8892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9455,9 +9463,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T488"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C314" sqref="C314"/>
+    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C476" sqref="C476"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32105,16 +32113,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AS263"/>
+  <dimension ref="A1:AS271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="AS46" sqref="AS46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="22" max="22" width="10.83203125" style="16"/>
+    <col min="3" max="20" width="10.83203125" customWidth="1"/>
     <col min="35" max="35" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32182,7 +32190,7 @@
       <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="9" t="s">
         <v>16</v>
       </c>
       <c r="W1" s="9" t="s">
@@ -32262,7 +32270,7 @@
       <c r="B2" t="s">
         <v>2595</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" t="s">
         <v>2591</v>
       </c>
       <c r="D2" t="s">
@@ -32289,13 +32297,13 @@
       <c r="U2" t="s">
         <v>2630</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" t="s">
         <v>39</v>
       </c>
       <c r="W2" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2">
         <v>25</v>
       </c>
       <c r="Y2" t="s">
@@ -32369,7 +32377,7 @@
       <c r="B3" t="s">
         <v>2595</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" t="s">
         <v>2591</v>
       </c>
       <c r="D3" t="s">
@@ -32396,13 +32404,13 @@
       <c r="U3" t="s">
         <v>2600</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3">
         <v>4</v>
       </c>
       <c r="W3">
         <v>7</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3">
         <v>25</v>
       </c>
       <c r="Y3" t="s">
@@ -32473,7 +32481,7 @@
       <c r="B4" t="s">
         <v>2595</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" t="s">
         <v>2591</v>
       </c>
       <c r="D4" t="s">
@@ -32500,13 +32508,13 @@
       <c r="U4" t="s">
         <v>2606</v>
       </c>
-      <c r="V4" s="16" t="s">
+      <c r="V4" t="s">
         <v>39</v>
       </c>
       <c r="W4" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4">
         <v>25</v>
       </c>
       <c r="Y4" t="s">
@@ -32577,7 +32585,7 @@
       <c r="B5" t="s">
         <v>2595</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" t="s">
         <v>2591</v>
       </c>
       <c r="D5" t="s">
@@ -32604,13 +32612,13 @@
       <c r="U5" t="s">
         <v>2607</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5">
         <v>4</v>
       </c>
       <c r="W5">
         <v>7</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5">
         <v>25</v>
       </c>
       <c r="Z5">
@@ -32678,7 +32686,7 @@
       <c r="B6" t="s">
         <v>2595</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" t="s">
         <v>2591</v>
       </c>
       <c r="D6" t="s">
@@ -32705,13 +32713,13 @@
       <c r="U6" t="s">
         <v>2610</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6">
         <v>4</v>
       </c>
       <c r="W6">
         <v>7</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6">
         <v>25</v>
       </c>
       <c r="Z6">
@@ -32779,7 +32787,7 @@
       <c r="B7" t="s">
         <v>2595</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s">
         <v>2591</v>
       </c>
       <c r="D7" t="s">
@@ -32806,13 +32814,13 @@
       <c r="U7" t="s">
         <v>2612</v>
       </c>
-      <c r="V7" s="16" t="s">
+      <c r="V7" t="s">
         <v>39</v>
       </c>
       <c r="W7" t="s">
         <v>39</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7">
         <v>25</v>
       </c>
       <c r="Y7" t="s">
@@ -32883,7 +32891,7 @@
       <c r="B8" t="s">
         <v>2595</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" t="s">
         <v>2591</v>
       </c>
       <c r="D8" t="s">
@@ -32910,13 +32918,13 @@
       <c r="U8" t="s">
         <v>2613</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8">
         <v>4</v>
       </c>
       <c r="W8">
         <v>7</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8">
         <v>25</v>
       </c>
       <c r="Y8" t="s">
@@ -32990,7 +32998,7 @@
       <c r="B9" t="s">
         <v>2595</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" t="s">
         <v>2591</v>
       </c>
       <c r="D9" t="s">
@@ -33017,13 +33025,13 @@
       <c r="U9" t="s">
         <v>2614</v>
       </c>
-      <c r="V9" s="16" t="s">
+      <c r="V9" t="s">
         <v>39</v>
       </c>
       <c r="W9" t="s">
         <v>39</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9">
         <v>25</v>
       </c>
       <c r="Y9" t="s">
@@ -33097,7 +33105,7 @@
       <c r="B10" t="s">
         <v>2595</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" t="s">
         <v>2591</v>
       </c>
       <c r="D10" t="s">
@@ -33124,13 +33132,13 @@
       <c r="U10" t="s">
         <v>2601</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="V10" t="s">
         <v>39</v>
       </c>
       <c r="W10" t="s">
         <v>39</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10">
         <v>25</v>
       </c>
       <c r="Y10" t="s">
@@ -33204,7 +33212,7 @@
       <c r="B11" t="s">
         <v>2595</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" t="s">
         <v>2591</v>
       </c>
       <c r="D11" t="s">
@@ -33231,13 +33239,13 @@
       <c r="U11" t="s">
         <v>2600</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11">
         <v>4</v>
       </c>
       <c r="W11">
         <v>7</v>
       </c>
-      <c r="X11" s="16">
+      <c r="X11">
         <v>25</v>
       </c>
       <c r="Y11" t="s">
@@ -33308,7 +33316,7 @@
       <c r="B12" t="s">
         <v>2595</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" t="s">
         <v>2591</v>
       </c>
       <c r="D12" t="s">
@@ -33335,13 +33343,13 @@
       <c r="U12" t="s">
         <v>2606</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="V12" t="s">
         <v>39</v>
       </c>
       <c r="W12" t="s">
         <v>39</v>
       </c>
-      <c r="X12" s="16">
+      <c r="X12">
         <v>25</v>
       </c>
       <c r="Y12" t="s">
@@ -33412,7 +33420,7 @@
       <c r="B13" t="s">
         <v>2595</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" t="s">
         <v>2591</v>
       </c>
       <c r="D13" t="s">
@@ -33439,13 +33447,13 @@
       <c r="U13" t="s">
         <v>2607</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13">
         <v>4</v>
       </c>
       <c r="W13">
         <v>7</v>
       </c>
-      <c r="X13" s="16">
+      <c r="X13">
         <v>25</v>
       </c>
       <c r="Z13">
@@ -33513,7 +33521,7 @@
       <c r="B14" t="s">
         <v>2595</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" t="s">
         <v>2591</v>
       </c>
       <c r="D14" t="s">
@@ -33540,13 +33548,13 @@
       <c r="U14" t="s">
         <v>2610</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14">
         <v>4</v>
       </c>
       <c r="W14">
         <v>7</v>
       </c>
-      <c r="X14" s="16">
+      <c r="X14">
         <v>25</v>
       </c>
       <c r="Z14">
@@ -33614,7 +33622,7 @@
       <c r="B15" t="s">
         <v>2595</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" t="s">
         <v>2591</v>
       </c>
       <c r="D15" t="s">
@@ -33641,13 +33649,13 @@
       <c r="U15" t="s">
         <v>2612</v>
       </c>
-      <c r="V15" s="16" t="s">
+      <c r="V15" t="s">
         <v>39</v>
       </c>
       <c r="W15" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="16">
+      <c r="X15">
         <v>25</v>
       </c>
       <c r="Y15" t="s">
@@ -33718,7 +33726,7 @@
       <c r="B16" t="s">
         <v>2595</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" t="s">
         <v>2591</v>
       </c>
       <c r="D16" t="s">
@@ -33745,13 +33753,13 @@
       <c r="U16" t="s">
         <v>2613</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16">
         <v>4</v>
       </c>
       <c r="W16">
         <v>7</v>
       </c>
-      <c r="X16" s="16">
+      <c r="X16">
         <v>25</v>
       </c>
       <c r="Y16" t="s">
@@ -33822,7 +33830,7 @@
       <c r="B17" t="s">
         <v>2595</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" t="s">
         <v>2591</v>
       </c>
       <c r="D17" t="s">
@@ -33849,13 +33857,13 @@
       <c r="U17" t="s">
         <v>2614</v>
       </c>
-      <c r="V17" s="16" t="s">
+      <c r="V17" t="s">
         <v>39</v>
       </c>
       <c r="W17" t="s">
         <v>39</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17">
         <v>25</v>
       </c>
       <c r="Y17" t="s">
@@ -33926,7 +33934,7 @@
       <c r="B18" t="s">
         <v>2595</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" t="s">
         <v>2591</v>
       </c>
       <c r="D18" t="s">
@@ -33953,13 +33961,13 @@
       <c r="U18" t="s">
         <v>2601</v>
       </c>
-      <c r="V18" s="16" t="s">
+      <c r="V18" t="s">
         <v>39</v>
       </c>
       <c r="W18" t="s">
         <v>39</v>
       </c>
-      <c r="X18" s="16">
+      <c r="X18">
         <v>25</v>
       </c>
       <c r="Y18" t="s">
@@ -34033,7 +34041,7 @@
       <c r="B19" t="s">
         <v>2595</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" t="s">
         <v>2591</v>
       </c>
       <c r="D19" t="s">
@@ -34060,13 +34068,13 @@
       <c r="U19" t="s">
         <v>2600</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19">
         <v>4</v>
       </c>
       <c r="W19">
         <v>7</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19">
         <v>25</v>
       </c>
       <c r="Y19" t="s">
@@ -34137,7 +34145,7 @@
       <c r="B20" t="s">
         <v>2595</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" t="s">
         <v>2591</v>
       </c>
       <c r="D20" t="s">
@@ -34164,13 +34172,13 @@
       <c r="U20" t="s">
         <v>2606</v>
       </c>
-      <c r="V20" s="16" t="s">
+      <c r="V20" t="s">
         <v>39</v>
       </c>
       <c r="W20" t="s">
         <v>39</v>
       </c>
-      <c r="X20" s="16">
+      <c r="X20">
         <v>25</v>
       </c>
       <c r="Y20" t="s">
@@ -34241,7 +34249,7 @@
       <c r="B21" t="s">
         <v>2595</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" t="s">
         <v>2591</v>
       </c>
       <c r="D21" t="s">
@@ -34268,13 +34276,13 @@
       <c r="U21" t="s">
         <v>2607</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21">
         <v>4</v>
       </c>
       <c r="W21">
         <v>7</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21">
         <v>25</v>
       </c>
       <c r="Z21">
@@ -34342,7 +34350,7 @@
       <c r="B22" t="s">
         <v>2595</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" t="s">
         <v>2591</v>
       </c>
       <c r="D22" t="s">
@@ -34369,13 +34377,13 @@
       <c r="U22" t="s">
         <v>2610</v>
       </c>
-      <c r="V22" s="16">
+      <c r="V22">
         <v>4</v>
       </c>
       <c r="W22">
         <v>7</v>
       </c>
-      <c r="X22" s="16">
+      <c r="X22">
         <v>25</v>
       </c>
       <c r="Z22">
@@ -34443,7 +34451,7 @@
       <c r="B23" t="s">
         <v>2595</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" t="s">
         <v>2591</v>
       </c>
       <c r="D23" t="s">
@@ -34470,13 +34478,13 @@
       <c r="U23" t="s">
         <v>2612</v>
       </c>
-      <c r="V23" s="16" t="s">
+      <c r="V23" t="s">
         <v>39</v>
       </c>
       <c r="W23" t="s">
         <v>39</v>
       </c>
-      <c r="X23" s="16">
+      <c r="X23">
         <v>25</v>
       </c>
       <c r="Y23" t="s">
@@ -34547,7 +34555,7 @@
       <c r="B24" t="s">
         <v>2595</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" t="s">
         <v>2591</v>
       </c>
       <c r="D24" t="s">
@@ -34574,13 +34582,13 @@
       <c r="U24" t="s">
         <v>2613</v>
       </c>
-      <c r="V24" s="16">
+      <c r="V24">
         <v>4</v>
       </c>
       <c r="W24">
         <v>7</v>
       </c>
-      <c r="X24" s="16">
+      <c r="X24">
         <v>25</v>
       </c>
       <c r="Y24" t="s">
@@ -34651,7 +34659,7 @@
       <c r="B25" t="s">
         <v>2595</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" t="s">
         <v>2591</v>
       </c>
       <c r="D25" t="s">
@@ -34678,13 +34686,13 @@
       <c r="U25" t="s">
         <v>2614</v>
       </c>
-      <c r="V25" s="16" t="s">
+      <c r="V25" t="s">
         <v>39</v>
       </c>
       <c r="W25" t="s">
         <v>39</v>
       </c>
-      <c r="X25" s="16">
+      <c r="X25">
         <v>25</v>
       </c>
       <c r="Y25" t="s">
@@ -34755,7 +34763,7 @@
       <c r="B26" t="s">
         <v>2595</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" t="s">
         <v>2591</v>
       </c>
       <c r="D26" t="s">
@@ -34782,13 +34790,13 @@
       <c r="U26" t="s">
         <v>2601</v>
       </c>
-      <c r="V26" s="16" t="s">
+      <c r="V26" t="s">
         <v>39</v>
       </c>
       <c r="W26" t="s">
         <v>39</v>
       </c>
-      <c r="X26" s="16">
+      <c r="X26">
         <v>25</v>
       </c>
       <c r="Y26" t="s">
@@ -34828,13 +34836,13 @@
         <v>2626</v>
       </c>
       <c r="AK26">
-        <v>0.32900000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL26" t="s">
         <v>2617</v>
       </c>
       <c r="AM26">
-        <v>-0.16400000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN26">
         <v>6</v>
@@ -34862,7 +34870,7 @@
       <c r="B27" t="s">
         <v>2595</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" t="s">
         <v>2591</v>
       </c>
       <c r="D27" t="s">
@@ -34889,13 +34897,13 @@
       <c r="U27" t="s">
         <v>2600</v>
       </c>
-      <c r="V27" s="16">
+      <c r="V27">
         <v>4</v>
       </c>
       <c r="W27">
         <v>7</v>
       </c>
-      <c r="X27" s="16">
+      <c r="X27">
         <v>25</v>
       </c>
       <c r="Y27" t="s">
@@ -34966,7 +34974,7 @@
       <c r="B28" t="s">
         <v>2595</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" t="s">
         <v>2591</v>
       </c>
       <c r="D28" t="s">
@@ -34993,13 +35001,13 @@
       <c r="U28" t="s">
         <v>2606</v>
       </c>
-      <c r="V28" s="16" t="s">
+      <c r="V28" t="s">
         <v>39</v>
       </c>
       <c r="W28" t="s">
         <v>39</v>
       </c>
-      <c r="X28" s="16">
+      <c r="X28">
         <v>25</v>
       </c>
       <c r="Y28" t="s">
@@ -35070,7 +35078,7 @@
       <c r="B29" t="s">
         <v>2595</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" t="s">
         <v>2591</v>
       </c>
       <c r="D29" t="s">
@@ -35097,13 +35105,13 @@
       <c r="U29" t="s">
         <v>2607</v>
       </c>
-      <c r="V29" s="16">
+      <c r="V29">
         <v>4</v>
       </c>
       <c r="W29">
         <v>7</v>
       </c>
-      <c r="X29" s="16">
+      <c r="X29">
         <v>25</v>
       </c>
       <c r="Z29">
@@ -35171,7 +35179,7 @@
       <c r="B30" t="s">
         <v>2595</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" t="s">
         <v>2591</v>
       </c>
       <c r="D30" t="s">
@@ -35198,13 +35206,13 @@
       <c r="U30" t="s">
         <v>2610</v>
       </c>
-      <c r="V30" s="16">
+      <c r="V30">
         <v>4</v>
       </c>
       <c r="W30">
         <v>7</v>
       </c>
-      <c r="X30" s="16">
+      <c r="X30">
         <v>25</v>
       </c>
       <c r="Z30">
@@ -35272,7 +35280,7 @@
       <c r="B31" t="s">
         <v>2595</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" t="s">
         <v>2591</v>
       </c>
       <c r="D31" t="s">
@@ -35299,13 +35307,13 @@
       <c r="U31" t="s">
         <v>2612</v>
       </c>
-      <c r="V31" s="16" t="s">
+      <c r="V31" t="s">
         <v>39</v>
       </c>
       <c r="W31" t="s">
         <v>39</v>
       </c>
-      <c r="X31" s="16">
+      <c r="X31">
         <v>25</v>
       </c>
       <c r="Y31" t="s">
@@ -35376,7 +35384,7 @@
       <c r="B32" t="s">
         <v>2595</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" t="s">
         <v>2591</v>
       </c>
       <c r="D32" t="s">
@@ -35403,13 +35411,13 @@
       <c r="U32" t="s">
         <v>2613</v>
       </c>
-      <c r="V32" s="16">
+      <c r="V32">
         <v>4</v>
       </c>
       <c r="W32">
         <v>7</v>
       </c>
-      <c r="X32" s="16">
+      <c r="X32">
         <v>25</v>
       </c>
       <c r="Y32" t="s">
@@ -35480,7 +35488,7 @@
       <c r="B33" t="s">
         <v>2595</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" t="s">
         <v>2591</v>
       </c>
       <c r="D33" t="s">
@@ -35507,13 +35515,13 @@
       <c r="U33" t="s">
         <v>2614</v>
       </c>
-      <c r="V33" s="16" t="s">
+      <c r="V33" t="s">
         <v>39</v>
       </c>
       <c r="W33" t="s">
         <v>39</v>
       </c>
-      <c r="X33" s="16">
+      <c r="X33">
         <v>25</v>
       </c>
       <c r="Y33" t="s">
@@ -35582,9 +35590,9 @@
         <v>1801</v>
       </c>
       <c r="B34" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C34" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C34" t="s">
         <v>2591</v>
       </c>
       <c r="D34" t="s">
@@ -35611,13 +35619,13 @@
       <c r="U34" t="s">
         <v>2627</v>
       </c>
-      <c r="V34" s="16">
+      <c r="V34">
         <v>4</v>
       </c>
       <c r="W34">
         <v>7</v>
       </c>
-      <c r="X34" s="16">
+      <c r="X34">
         <v>25</v>
       </c>
       <c r="Y34" t="s">
@@ -35657,7 +35665,7 @@
         <v>2618</v>
       </c>
       <c r="AK34">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="AL34" t="s">
         <v>2617</v>
@@ -35689,9 +35697,9 @@
         <v>1801</v>
       </c>
       <c r="B35" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C35" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C35" t="s">
         <v>2591</v>
       </c>
       <c r="D35" t="s">
@@ -35718,13 +35726,13 @@
       <c r="U35" t="s">
         <v>2627</v>
       </c>
-      <c r="V35" s="16">
+      <c r="V35">
         <v>4</v>
       </c>
       <c r="W35">
         <v>7</v>
       </c>
-      <c r="X35" s="16">
+      <c r="X35">
         <v>25</v>
       </c>
       <c r="Y35" t="s">
@@ -35793,9 +35801,9 @@
         <v>1801</v>
       </c>
       <c r="B36" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C36" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C36" t="s">
         <v>2591</v>
       </c>
       <c r="D36" t="s">
@@ -35822,13 +35830,13 @@
       <c r="U36" t="s">
         <v>2627</v>
       </c>
-      <c r="V36" s="16">
+      <c r="V36">
         <v>4</v>
       </c>
       <c r="W36">
         <v>7</v>
       </c>
-      <c r="X36" s="16">
+      <c r="X36">
         <v>25</v>
       </c>
       <c r="Y36" t="s">
@@ -35897,9 +35905,9 @@
         <v>1801</v>
       </c>
       <c r="B37" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C37" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C37" t="s">
         <v>2591</v>
       </c>
       <c r="D37" t="s">
@@ -35926,13 +35934,13 @@
       <c r="U37" t="s">
         <v>2627</v>
       </c>
-      <c r="V37" s="16">
+      <c r="V37">
         <v>4</v>
       </c>
       <c r="W37">
         <v>7</v>
       </c>
-      <c r="X37" s="16">
+      <c r="X37">
         <v>25</v>
       </c>
       <c r="Y37" t="s">
@@ -36001,9 +36009,9 @@
         <v>1801</v>
       </c>
       <c r="B38" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C38" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C38" t="s">
         <v>2591</v>
       </c>
       <c r="D38" t="s">
@@ -36030,13 +36038,13 @@
       <c r="U38" t="s">
         <v>2627</v>
       </c>
-      <c r="V38" s="16">
+      <c r="V38">
         <v>4</v>
       </c>
       <c r="W38">
         <v>7</v>
       </c>
-      <c r="X38" s="16">
+      <c r="X38">
         <v>25</v>
       </c>
       <c r="Y38" t="s">
@@ -36105,9 +36113,9 @@
         <v>1801</v>
       </c>
       <c r="B39" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C39" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C39" t="s">
         <v>2591</v>
       </c>
       <c r="D39" t="s">
@@ -36134,13 +36142,13 @@
       <c r="U39" t="s">
         <v>2627</v>
       </c>
-      <c r="V39" s="16">
+      <c r="V39">
         <v>4</v>
       </c>
       <c r="W39">
         <v>7</v>
       </c>
-      <c r="X39" s="16">
+      <c r="X39">
         <v>25</v>
       </c>
       <c r="Y39" t="s">
@@ -36209,9 +36217,9 @@
         <v>1801</v>
       </c>
       <c r="B40" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C40" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C40" t="s">
         <v>2591</v>
       </c>
       <c r="D40" t="s">
@@ -36238,13 +36246,13 @@
       <c r="U40" t="s">
         <v>2627</v>
       </c>
-      <c r="V40" s="16">
+      <c r="V40">
         <v>4</v>
       </c>
       <c r="W40">
         <v>7</v>
       </c>
-      <c r="X40" s="16">
+      <c r="X40">
         <v>25</v>
       </c>
       <c r="Y40" t="s">
@@ -36313,9 +36321,9 @@
         <v>1801</v>
       </c>
       <c r="B41" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C41" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C41" t="s">
         <v>2591</v>
       </c>
       <c r="D41" t="s">
@@ -36342,13 +36350,13 @@
       <c r="U41" t="s">
         <v>2627</v>
       </c>
-      <c r="V41" s="16">
+      <c r="V41">
         <v>4</v>
       </c>
       <c r="W41">
         <v>7</v>
       </c>
-      <c r="X41" s="16">
+      <c r="X41">
         <v>25</v>
       </c>
       <c r="Y41" t="s">
@@ -36417,9 +36425,9 @@
         <v>1801</v>
       </c>
       <c r="B42" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C42" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C42" t="s">
         <v>2591</v>
       </c>
       <c r="D42" t="s">
@@ -36446,13 +36454,13 @@
       <c r="U42" t="s">
         <v>2627</v>
       </c>
-      <c r="V42" s="16">
+      <c r="V42">
         <v>4</v>
       </c>
       <c r="W42">
         <v>7</v>
       </c>
-      <c r="X42" s="16">
+      <c r="X42">
         <v>25</v>
       </c>
       <c r="Y42" t="s">
@@ -36521,9 +36529,9 @@
         <v>1801</v>
       </c>
       <c r="B43" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C43" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C43" t="s">
         <v>2591</v>
       </c>
       <c r="D43" t="s">
@@ -36550,13 +36558,13 @@
       <c r="U43" t="s">
         <v>2627</v>
       </c>
-      <c r="V43" s="16">
+      <c r="V43">
         <v>4</v>
       </c>
       <c r="W43">
         <v>7</v>
       </c>
-      <c r="X43" s="16">
+      <c r="X43">
         <v>25</v>
       </c>
       <c r="Y43" t="s">
@@ -36625,9 +36633,9 @@
         <v>1801</v>
       </c>
       <c r="B44" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C44" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C44" t="s">
         <v>2591</v>
       </c>
       <c r="D44" t="s">
@@ -36654,13 +36662,13 @@
       <c r="U44" t="s">
         <v>2627</v>
       </c>
-      <c r="V44" s="16">
+      <c r="V44">
         <v>4</v>
       </c>
       <c r="W44">
         <v>7</v>
       </c>
-      <c r="X44" s="16">
+      <c r="X44">
         <v>25</v>
       </c>
       <c r="Y44" t="s">
@@ -36729,9 +36737,9 @@
         <v>1801</v>
       </c>
       <c r="B45" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C45" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C45" t="s">
         <v>2591</v>
       </c>
       <c r="D45" t="s">
@@ -36758,13 +36766,13 @@
       <c r="U45" t="s">
         <v>2627</v>
       </c>
-      <c r="V45" s="16">
+      <c r="V45">
         <v>4</v>
       </c>
       <c r="W45">
         <v>7</v>
       </c>
-      <c r="X45" s="16">
+      <c r="X45">
         <v>25</v>
       </c>
       <c r="Y45" t="s">
@@ -36833,9 +36841,9 @@
         <v>1801</v>
       </c>
       <c r="B46" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C46" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C46" t="s">
         <v>2591</v>
       </c>
       <c r="D46" t="s">
@@ -36862,13 +36870,13 @@
       <c r="U46" t="s">
         <v>2612</v>
       </c>
-      <c r="V46" s="16" t="s">
+      <c r="V46" t="s">
         <v>39</v>
       </c>
       <c r="W46" t="s">
         <v>39</v>
       </c>
-      <c r="X46" s="16">
+      <c r="X46">
         <v>25</v>
       </c>
       <c r="Y46" t="s">
@@ -36908,13 +36916,13 @@
         <v>2618</v>
       </c>
       <c r="AK46">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="AL46" t="s">
         <v>2617</v>
       </c>
       <c r="AM46">
-        <v>0.16100000000000003</v>
+        <v>0</v>
       </c>
       <c r="AN46">
         <v>6</v>
@@ -36937,9 +36945,9 @@
         <v>1801</v>
       </c>
       <c r="B47" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C47" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C47" t="s">
         <v>2591</v>
       </c>
       <c r="D47" t="s">
@@ -36966,13 +36974,13 @@
       <c r="U47" t="s">
         <v>2612</v>
       </c>
-      <c r="V47" s="16" t="s">
+      <c r="V47" t="s">
         <v>39</v>
       </c>
       <c r="W47" t="s">
         <v>39</v>
       </c>
-      <c r="X47" s="16">
+      <c r="X47">
         <v>25</v>
       </c>
       <c r="Y47" t="s">
@@ -37041,9 +37049,9 @@
         <v>1801</v>
       </c>
       <c r="B48" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C48" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C48" t="s">
         <v>2591</v>
       </c>
       <c r="D48" t="s">
@@ -37070,13 +37078,13 @@
       <c r="U48" t="s">
         <v>2612</v>
       </c>
-      <c r="V48" s="16" t="s">
+      <c r="V48" t="s">
         <v>39</v>
       </c>
       <c r="W48" t="s">
         <v>39</v>
       </c>
-      <c r="X48" s="16">
+      <c r="X48">
         <v>25</v>
       </c>
       <c r="Y48" t="s">
@@ -37145,9 +37153,9 @@
         <v>1801</v>
       </c>
       <c r="B49" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C49" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C49" t="s">
         <v>2591</v>
       </c>
       <c r="D49" t="s">
@@ -37174,13 +37182,13 @@
       <c r="U49" t="s">
         <v>2612</v>
       </c>
-      <c r="V49" s="16" t="s">
+      <c r="V49" t="s">
         <v>39</v>
       </c>
       <c r="W49" t="s">
         <v>39</v>
       </c>
-      <c r="X49" s="16">
+      <c r="X49">
         <v>25</v>
       </c>
       <c r="Y49" t="s">
@@ -37249,9 +37257,9 @@
         <v>1801</v>
       </c>
       <c r="B50" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C50" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C50" t="s">
         <v>2591</v>
       </c>
       <c r="D50" t="s">
@@ -37278,13 +37286,13 @@
       <c r="U50" t="s">
         <v>2612</v>
       </c>
-      <c r="V50" s="16" t="s">
+      <c r="V50" t="s">
         <v>39</v>
       </c>
       <c r="W50" t="s">
         <v>39</v>
       </c>
-      <c r="X50" s="16">
+      <c r="X50">
         <v>25</v>
       </c>
       <c r="Y50" t="s">
@@ -37353,9 +37361,9 @@
         <v>1801</v>
       </c>
       <c r="B51" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C51" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C51" t="s">
         <v>2591</v>
       </c>
       <c r="D51" t="s">
@@ -37382,13 +37390,13 @@
       <c r="U51" t="s">
         <v>2612</v>
       </c>
-      <c r="V51" s="16" t="s">
+      <c r="V51" t="s">
         <v>39</v>
       </c>
       <c r="W51" t="s">
         <v>39</v>
       </c>
-      <c r="X51" s="16">
+      <c r="X51">
         <v>25</v>
       </c>
       <c r="Y51" t="s">
@@ -37457,9 +37465,9 @@
         <v>1801</v>
       </c>
       <c r="B52" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C52" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C52" t="s">
         <v>2591</v>
       </c>
       <c r="D52" t="s">
@@ -37486,13 +37494,13 @@
       <c r="U52" t="s">
         <v>2612</v>
       </c>
-      <c r="V52" s="16" t="s">
+      <c r="V52" t="s">
         <v>39</v>
       </c>
       <c r="W52" t="s">
         <v>39</v>
       </c>
-      <c r="X52" s="16">
+      <c r="X52">
         <v>25</v>
       </c>
       <c r="Y52" t="s">
@@ -37561,9 +37569,9 @@
         <v>1801</v>
       </c>
       <c r="B53" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C53" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C53" t="s">
         <v>2591</v>
       </c>
       <c r="D53" t="s">
@@ -37590,13 +37598,13 @@
       <c r="U53" t="s">
         <v>2612</v>
       </c>
-      <c r="V53" s="16" t="s">
+      <c r="V53" t="s">
         <v>39</v>
       </c>
       <c r="W53" t="s">
         <v>39</v>
       </c>
-      <c r="X53" s="16">
+      <c r="X53">
         <v>25</v>
       </c>
       <c r="Y53" t="s">
@@ -37665,9 +37673,9 @@
         <v>1801</v>
       </c>
       <c r="B54" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C54" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C54" t="s">
         <v>2591</v>
       </c>
       <c r="D54" t="s">
@@ -37694,13 +37702,13 @@
       <c r="U54" t="s">
         <v>2612</v>
       </c>
-      <c r="V54" s="16" t="s">
+      <c r="V54" t="s">
         <v>39</v>
       </c>
       <c r="W54" t="s">
         <v>39</v>
       </c>
-      <c r="X54" s="16">
+      <c r="X54">
         <v>25</v>
       </c>
       <c r="Y54" t="s">
@@ -37769,9 +37777,9 @@
         <v>1801</v>
       </c>
       <c r="B55" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C55" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C55" t="s">
         <v>2591</v>
       </c>
       <c r="D55" t="s">
@@ -37798,13 +37806,13 @@
       <c r="U55" t="s">
         <v>2612</v>
       </c>
-      <c r="V55" s="16" t="s">
+      <c r="V55" t="s">
         <v>39</v>
       </c>
       <c r="W55" t="s">
         <v>39</v>
       </c>
-      <c r="X55" s="16">
+      <c r="X55">
         <v>25</v>
       </c>
       <c r="Y55" t="s">
@@ -37873,9 +37881,9 @@
         <v>1801</v>
       </c>
       <c r="B56" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C56" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C56" t="s">
         <v>2591</v>
       </c>
       <c r="D56" t="s">
@@ -37902,13 +37910,13 @@
       <c r="U56" t="s">
         <v>2612</v>
       </c>
-      <c r="V56" s="16" t="s">
+      <c r="V56" t="s">
         <v>39</v>
       </c>
       <c r="W56" t="s">
         <v>39</v>
       </c>
-      <c r="X56" s="16">
+      <c r="X56">
         <v>25</v>
       </c>
       <c r="Y56" t="s">
@@ -37977,9 +37985,9 @@
         <v>1801</v>
       </c>
       <c r="B57" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C57" s="15" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C57" t="s">
         <v>2591</v>
       </c>
       <c r="D57" t="s">
@@ -38006,13 +38014,13 @@
       <c r="U57" t="s">
         <v>2612</v>
       </c>
-      <c r="V57" s="16" t="s">
+      <c r="V57" t="s">
         <v>39</v>
       </c>
       <c r="W57" t="s">
         <v>39</v>
       </c>
-      <c r="X57" s="16">
+      <c r="X57">
         <v>25</v>
       </c>
       <c r="Y57" t="s">
@@ -38081,9 +38089,9 @@
         <v>1801</v>
       </c>
       <c r="B58" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C58" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C58" t="s">
         <v>2591</v>
       </c>
       <c r="D58" t="s">
@@ -38110,20 +38118,20 @@
       <c r="U58" t="s">
         <v>2630</v>
       </c>
-      <c r="V58" s="16" t="s">
+      <c r="V58" t="s">
         <v>39</v>
       </c>
       <c r="W58" t="s">
         <v>39</v>
       </c>
-      <c r="X58" s="16">
+      <c r="X58">
         <v>25</v>
       </c>
       <c r="Y58" t="s">
         <v>39</v>
       </c>
       <c r="Z58">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="s">
         <v>39</v>
@@ -38156,7 +38164,7 @@
         <v>2631</v>
       </c>
       <c r="AK58">
-        <v>-0.32200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL58" t="s">
         <v>2617</v>
@@ -38188,9 +38196,9 @@
         <v>1801</v>
       </c>
       <c r="B59" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C59" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C59" t="s">
         <v>2591</v>
       </c>
       <c r="D59" t="s">
@@ -38217,20 +38225,20 @@
       <c r="U59" t="s">
         <v>2630</v>
       </c>
-      <c r="V59" s="16" t="s">
+      <c r="V59" t="s">
         <v>39</v>
       </c>
       <c r="W59" t="s">
         <v>39</v>
       </c>
-      <c r="X59" s="16">
+      <c r="X59">
         <v>25</v>
       </c>
       <c r="Y59" t="s">
         <v>39</v>
       </c>
       <c r="Z59">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="s">
         <v>39</v>
@@ -38263,7 +38271,7 @@
         <v>2631</v>
       </c>
       <c r="AK59">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL59" t="s">
         <v>2617</v>
@@ -38295,9 +38303,9 @@
         <v>1801</v>
       </c>
       <c r="B60" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C60" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C60" t="s">
         <v>2591</v>
       </c>
       <c r="D60" t="s">
@@ -38324,20 +38332,20 @@
       <c r="U60" t="s">
         <v>2630</v>
       </c>
-      <c r="V60" s="16" t="s">
+      <c r="V60" t="s">
         <v>39</v>
       </c>
       <c r="W60" t="s">
         <v>39</v>
       </c>
-      <c r="X60" s="16">
+      <c r="X60">
         <v>25</v>
       </c>
       <c r="Y60" t="s">
         <v>39</v>
       </c>
       <c r="Z60">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA60" t="s">
         <v>39</v>
@@ -38370,7 +38378,7 @@
         <v>2631</v>
       </c>
       <c r="AK60">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL60" t="s">
         <v>2617</v>
@@ -38402,9 +38410,9 @@
         <v>1801</v>
       </c>
       <c r="B61" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C61" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C61" t="s">
         <v>2591</v>
       </c>
       <c r="D61" t="s">
@@ -38431,20 +38439,20 @@
       <c r="U61" t="s">
         <v>2630</v>
       </c>
-      <c r="V61" s="16" t="s">
+      <c r="V61" t="s">
         <v>39</v>
       </c>
       <c r="W61" t="s">
         <v>39</v>
       </c>
-      <c r="X61" s="16">
+      <c r="X61">
         <v>25</v>
       </c>
       <c r="Y61" t="s">
         <v>39</v>
       </c>
       <c r="Z61">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA61" t="s">
         <v>39</v>
@@ -38477,7 +38485,7 @@
         <v>2631</v>
       </c>
       <c r="AK61">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL61" t="s">
         <v>2617</v>
@@ -38509,9 +38517,9 @@
         <v>1801</v>
       </c>
       <c r="B62" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C62" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C62" t="s">
         <v>2591</v>
       </c>
       <c r="D62" t="s">
@@ -38538,20 +38546,20 @@
       <c r="U62" t="s">
         <v>2630</v>
       </c>
-      <c r="V62" s="16" t="s">
+      <c r="V62" t="s">
         <v>39</v>
       </c>
       <c r="W62" t="s">
         <v>39</v>
       </c>
-      <c r="X62" s="16">
+      <c r="X62">
         <v>25</v>
       </c>
       <c r="Y62" t="s">
         <v>39</v>
       </c>
       <c r="Z62">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA62" t="s">
         <v>39</v>
@@ -38584,7 +38592,7 @@
         <v>2631</v>
       </c>
       <c r="AK62">
-        <v>-0.47499999999999998</v>
+        <v>0</v>
       </c>
       <c r="AL62" t="s">
         <v>2617</v>
@@ -38616,9 +38624,9 @@
         <v>1801</v>
       </c>
       <c r="B63" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C63" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C63" t="s">
         <v>2591</v>
       </c>
       <c r="D63" t="s">
@@ -38645,20 +38653,20 @@
       <c r="U63" t="s">
         <v>2630</v>
       </c>
-      <c r="V63" s="16" t="s">
+      <c r="V63" t="s">
         <v>39</v>
       </c>
       <c r="W63" t="s">
         <v>39</v>
       </c>
-      <c r="X63" s="16">
+      <c r="X63">
         <v>25</v>
       </c>
       <c r="Y63" t="s">
         <v>39</v>
       </c>
       <c r="Z63">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA63" t="s">
         <v>39</v>
@@ -38691,7 +38699,7 @@
         <v>2631</v>
       </c>
       <c r="AK63">
-        <v>-0.13400000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL63" t="s">
         <v>2617</v>
@@ -38723,9 +38731,9 @@
         <v>1801</v>
       </c>
       <c r="B64" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C64" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C64" t="s">
         <v>2591</v>
       </c>
       <c r="D64" t="s">
@@ -38752,20 +38760,20 @@
       <c r="U64" t="s">
         <v>2630</v>
       </c>
-      <c r="V64" s="16" t="s">
+      <c r="V64" t="s">
         <v>39</v>
       </c>
       <c r="W64" t="s">
         <v>39</v>
       </c>
-      <c r="X64" s="16">
+      <c r="X64">
         <v>25</v>
       </c>
       <c r="Y64" t="s">
         <v>39</v>
       </c>
       <c r="Z64">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="s">
         <v>39</v>
@@ -38798,7 +38806,7 @@
         <v>2631</v>
       </c>
       <c r="AK64">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL64" t="s">
         <v>2617</v>
@@ -38830,9 +38838,9 @@
         <v>1801</v>
       </c>
       <c r="B65" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C65" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C65" t="s">
         <v>2591</v>
       </c>
       <c r="D65" t="s">
@@ -38859,20 +38867,20 @@
       <c r="U65" t="s">
         <v>2630</v>
       </c>
-      <c r="V65" s="16" t="s">
+      <c r="V65" t="s">
         <v>39</v>
       </c>
       <c r="W65" t="s">
         <v>39</v>
       </c>
-      <c r="X65" s="16">
+      <c r="X65">
         <v>25</v>
       </c>
       <c r="Y65" t="s">
         <v>39</v>
       </c>
       <c r="Z65">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA65" t="s">
         <v>39</v>
@@ -38905,7 +38913,7 @@
         <v>2631</v>
       </c>
       <c r="AK65">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL65" t="s">
         <v>2617</v>
@@ -38937,9 +38945,9 @@
         <v>1801</v>
       </c>
       <c r="B66" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C66" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C66" t="s">
         <v>2591</v>
       </c>
       <c r="D66" t="s">
@@ -38966,20 +38974,20 @@
       <c r="U66" t="s">
         <v>2630</v>
       </c>
-      <c r="V66" s="16" t="s">
+      <c r="V66" t="s">
         <v>39</v>
       </c>
       <c r="W66" t="s">
         <v>39</v>
       </c>
-      <c r="X66" s="16">
+      <c r="X66">
         <v>25</v>
       </c>
       <c r="Y66" t="s">
         <v>39</v>
       </c>
       <c r="Z66">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="s">
         <v>39</v>
@@ -39012,7 +39020,7 @@
         <v>2631</v>
       </c>
       <c r="AK66">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL66" t="s">
         <v>2617</v>
@@ -39044,9 +39052,9 @@
         <v>1801</v>
       </c>
       <c r="B67" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C67" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C67" t="s">
         <v>2591</v>
       </c>
       <c r="D67" t="s">
@@ -39073,20 +39081,20 @@
       <c r="U67" t="s">
         <v>2630</v>
       </c>
-      <c r="V67" s="16" t="s">
+      <c r="V67" t="s">
         <v>39</v>
       </c>
       <c r="W67" t="s">
         <v>39</v>
       </c>
-      <c r="X67" s="16">
+      <c r="X67">
         <v>25</v>
       </c>
       <c r="Y67" t="s">
         <v>39</v>
       </c>
       <c r="Z67">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA67" t="s">
         <v>39</v>
@@ -39119,7 +39127,7 @@
         <v>2631</v>
       </c>
       <c r="AK67">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL67" t="s">
         <v>2617</v>
@@ -39151,9 +39159,9 @@
         <v>1801</v>
       </c>
       <c r="B68" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C68" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C68" t="s">
         <v>2591</v>
       </c>
       <c r="D68" t="s">
@@ -39180,20 +39188,20 @@
       <c r="U68" t="s">
         <v>2630</v>
       </c>
-      <c r="V68" s="16" t="s">
+      <c r="V68" t="s">
         <v>39</v>
       </c>
       <c r="W68" t="s">
         <v>39</v>
       </c>
-      <c r="X68" s="16">
+      <c r="X68">
         <v>25</v>
       </c>
       <c r="Y68" t="s">
         <v>39</v>
       </c>
       <c r="Z68">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA68" t="s">
         <v>39</v>
@@ -39226,7 +39234,7 @@
         <v>2631</v>
       </c>
       <c r="AK68">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL68" t="s">
         <v>2617</v>
@@ -39258,9 +39266,9 @@
         <v>1801</v>
       </c>
       <c r="B69" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C69" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C69" t="s">
         <v>2591</v>
       </c>
       <c r="D69" t="s">
@@ -39287,20 +39295,20 @@
       <c r="U69" t="s">
         <v>2630</v>
       </c>
-      <c r="V69" s="16" t="s">
+      <c r="V69" t="s">
         <v>39</v>
       </c>
       <c r="W69" t="s">
         <v>39</v>
       </c>
-      <c r="X69" s="16">
+      <c r="X69">
         <v>25</v>
       </c>
       <c r="Y69" t="s">
         <v>39</v>
       </c>
       <c r="Z69">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA69" t="s">
         <v>39</v>
@@ -39333,7 +39341,7 @@
         <v>2631</v>
       </c>
       <c r="AK69">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL69" t="s">
         <v>2617</v>
@@ -39365,9 +39373,9 @@
         <v>1801</v>
       </c>
       <c r="B70" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C70" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C70" t="s">
         <v>2591</v>
       </c>
       <c r="D70" t="s">
@@ -39392,31 +39400,31 @@
         <v>2597</v>
       </c>
       <c r="U70" t="s">
-        <v>2627</v>
-      </c>
-      <c r="V70" s="16">
-        <v>4</v>
-      </c>
-      <c r="W70">
-        <v>7</v>
-      </c>
-      <c r="X70" s="16">
+        <v>2630</v>
+      </c>
+      <c r="V70" t="s">
+        <v>39</v>
+      </c>
+      <c r="W70" t="s">
+        <v>39</v>
+      </c>
+      <c r="X70">
         <v>25</v>
       </c>
       <c r="Y70" t="s">
-        <v>2605</v>
+        <v>39</v>
       </c>
       <c r="Z70">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA70" t="s">
-        <v>2608</v>
+        <v>39</v>
       </c>
       <c r="AB70" t="s">
-        <v>2609</v>
+        <v>39</v>
       </c>
       <c r="AC70" t="s">
-        <v>2621</v>
+        <v>39</v>
       </c>
       <c r="AD70" t="s">
         <v>40</v>
@@ -39425,13 +39433,13 @@
         <v>39</v>
       </c>
       <c r="AF70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG70" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AH70">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>39</v>
       </c>
       <c r="AI70" t="s">
         <v>39</v>
@@ -39440,13 +39448,13 @@
         <v>2631</v>
       </c>
       <c r="AK70">
-        <v>-0.32200000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL70" t="s">
         <v>2617</v>
       </c>
-      <c r="AM70">
-        <v>0</v>
+      <c r="AM70" t="s">
+        <v>39</v>
       </c>
       <c r="AN70">
         <v>6</v>
@@ -39455,16 +39463,16 @@
         <v>25</v>
       </c>
       <c r="AP70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ70">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AR70" t="s">
-        <v>2616</v>
+        <v>2636</v>
       </c>
       <c r="AS70" t="s">
-        <v>2629</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="71" spans="1:45" x14ac:dyDescent="0.2">
@@ -39472,9 +39480,9 @@
         <v>1801</v>
       </c>
       <c r="B71" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C71" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C71" t="s">
         <v>2591</v>
       </c>
       <c r="D71" t="s">
@@ -39499,31 +39507,31 @@
         <v>2597</v>
       </c>
       <c r="U71" t="s">
-        <v>2627</v>
-      </c>
-      <c r="V71" s="16">
-        <v>4</v>
-      </c>
-      <c r="W71">
-        <v>7</v>
-      </c>
-      <c r="X71" s="16">
+        <v>2630</v>
+      </c>
+      <c r="V71" t="s">
+        <v>39</v>
+      </c>
+      <c r="W71" t="s">
+        <v>39</v>
+      </c>
+      <c r="X71">
         <v>25</v>
       </c>
       <c r="Y71" t="s">
-        <v>2605</v>
+        <v>39</v>
       </c>
       <c r="Z71">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA71" t="s">
-        <v>2608</v>
+        <v>39</v>
       </c>
       <c r="AB71" t="s">
-        <v>2609</v>
+        <v>39</v>
       </c>
       <c r="AC71" t="s">
-        <v>2621</v>
+        <v>39</v>
       </c>
       <c r="AD71" t="s">
         <v>40</v>
@@ -39532,13 +39540,13 @@
         <v>39</v>
       </c>
       <c r="AF71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG71" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AH71">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>39</v>
       </c>
       <c r="AI71" t="s">
         <v>39</v>
@@ -39547,13 +39555,13 @@
         <v>2631</v>
       </c>
       <c r="AK71">
-        <v>-0.13400000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL71" t="s">
         <v>2617</v>
       </c>
-      <c r="AM71">
-        <v>-0.17099999999999999</v>
+      <c r="AM71" t="s">
+        <v>39</v>
       </c>
       <c r="AN71">
         <v>6</v>
@@ -39562,13 +39570,16 @@
         <v>25</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AQ71">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AR71" t="s">
-        <v>2616</v>
+        <v>2636</v>
+      </c>
+      <c r="AS71" t="s">
+        <v>2620</v>
       </c>
     </row>
     <row r="72" spans="1:45" x14ac:dyDescent="0.2">
@@ -39576,9 +39587,9 @@
         <v>1801</v>
       </c>
       <c r="B72" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C72" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C72" t="s">
         <v>2591</v>
       </c>
       <c r="D72" t="s">
@@ -39603,31 +39614,31 @@
         <v>2597</v>
       </c>
       <c r="U72" t="s">
-        <v>2627</v>
-      </c>
-      <c r="V72" s="16">
-        <v>4</v>
-      </c>
-      <c r="W72">
-        <v>7</v>
-      </c>
-      <c r="X72" s="16">
+        <v>2630</v>
+      </c>
+      <c r="V72" t="s">
+        <v>39</v>
+      </c>
+      <c r="W72" t="s">
+        <v>39</v>
+      </c>
+      <c r="X72">
         <v>25</v>
       </c>
       <c r="Y72" t="s">
-        <v>2605</v>
+        <v>39</v>
       </c>
       <c r="Z72">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA72" t="s">
-        <v>2608</v>
+        <v>39</v>
       </c>
       <c r="AB72" t="s">
-        <v>2609</v>
+        <v>39</v>
       </c>
       <c r="AC72" t="s">
-        <v>2621</v>
+        <v>39</v>
       </c>
       <c r="AD72" t="s">
         <v>40</v>
@@ -39636,28 +39647,28 @@
         <v>39</v>
       </c>
       <c r="AF72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG72" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AH72">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>39</v>
       </c>
       <c r="AI72" t="s">
         <v>39</v>
       </c>
       <c r="AJ72" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="AK72">
-        <v>-0.30499999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL72" t="s">
         <v>2617</v>
       </c>
-      <c r="AM72">
-        <v>0</v>
+      <c r="AM72" t="s">
+        <v>39</v>
       </c>
       <c r="AN72">
         <v>6</v>
@@ -39666,13 +39677,16 @@
         <v>25</v>
       </c>
       <c r="AP72">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AQ72">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AR72" t="s">
-        <v>2616</v>
+        <v>2636</v>
+      </c>
+      <c r="AS72" t="s">
+        <v>2620</v>
       </c>
     </row>
     <row r="73" spans="1:45" x14ac:dyDescent="0.2">
@@ -39680,9 +39694,9 @@
         <v>1801</v>
       </c>
       <c r="B73" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C73" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C73" t="s">
         <v>2591</v>
       </c>
       <c r="D73" t="s">
@@ -39707,31 +39721,31 @@
         <v>2597</v>
       </c>
       <c r="U73" t="s">
-        <v>2627</v>
-      </c>
-      <c r="V73" s="16">
-        <v>4</v>
-      </c>
-      <c r="W73">
-        <v>7</v>
-      </c>
-      <c r="X73" s="16">
+        <v>2630</v>
+      </c>
+      <c r="V73" t="s">
+        <v>39</v>
+      </c>
+      <c r="W73" t="s">
+        <v>39</v>
+      </c>
+      <c r="X73">
         <v>25</v>
       </c>
       <c r="Y73" t="s">
-        <v>2605</v>
+        <v>39</v>
       </c>
       <c r="Z73">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA73" t="s">
-        <v>2608</v>
+        <v>39</v>
       </c>
       <c r="AB73" t="s">
-        <v>2609</v>
+        <v>39</v>
       </c>
       <c r="AC73" t="s">
-        <v>2621</v>
+        <v>39</v>
       </c>
       <c r="AD73" t="s">
         <v>40</v>
@@ -39740,28 +39754,28 @@
         <v>39</v>
       </c>
       <c r="AF73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AG73" t="s">
-        <v>2611</v>
-      </c>
-      <c r="AH73">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>39</v>
       </c>
       <c r="AI73" t="s">
         <v>39</v>
       </c>
       <c r="AJ73" t="s">
-        <v>2631</v>
+        <v>2626</v>
       </c>
       <c r="AK73">
-        <v>5.6660000000000004</v>
+        <v>0</v>
       </c>
       <c r="AL73" t="s">
         <v>2617</v>
       </c>
-      <c r="AM73">
-        <v>1.7059999999999995</v>
+      <c r="AM73" t="s">
+        <v>39</v>
       </c>
       <c r="AN73">
         <v>6</v>
@@ -39770,13 +39784,16 @@
         <v>25</v>
       </c>
       <c r="AP73">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AQ73">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AR73" t="s">
-        <v>2616</v>
+        <v>2636</v>
+      </c>
+      <c r="AS73" t="s">
+        <v>2620</v>
       </c>
     </row>
     <row r="74" spans="1:45" x14ac:dyDescent="0.2">
@@ -39784,9 +39801,9 @@
         <v>1801</v>
       </c>
       <c r="B74" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C74" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C74" t="s">
         <v>2591</v>
       </c>
       <c r="D74" t="s">
@@ -39813,20 +39830,20 @@
       <c r="U74" t="s">
         <v>2627</v>
       </c>
-      <c r="V74" s="16">
+      <c r="V74">
         <v>4</v>
       </c>
       <c r="W74">
         <v>7</v>
       </c>
-      <c r="X74" s="16">
+      <c r="X74">
         <v>25</v>
       </c>
       <c r="Y74" t="s">
         <v>2605</v>
       </c>
       <c r="Z74">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA74" t="s">
         <v>2608</v>
@@ -39859,13 +39876,13 @@
         <v>2631</v>
       </c>
       <c r="AK74">
-        <v>16.244</v>
+        <v>0</v>
       </c>
       <c r="AL74" t="s">
         <v>2617</v>
       </c>
       <c r="AM74">
-        <v>3.5820000000000007</v>
+        <v>0</v>
       </c>
       <c r="AN74">
         <v>6</v>
@@ -39874,13 +39891,16 @@
         <v>25</v>
       </c>
       <c r="AP74">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AQ74">
         <v>-10</v>
       </c>
       <c r="AR74" t="s">
         <v>2616</v>
+      </c>
+      <c r="AS74" t="s">
+        <v>2629</v>
       </c>
     </row>
     <row r="75" spans="1:45" x14ac:dyDescent="0.2">
@@ -39888,9 +39908,9 @@
         <v>1801</v>
       </c>
       <c r="B75" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C75" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C75" t="s">
         <v>2591</v>
       </c>
       <c r="D75" t="s">
@@ -39917,20 +39937,20 @@
       <c r="U75" t="s">
         <v>2627</v>
       </c>
-      <c r="V75" s="16">
+      <c r="V75">
         <v>4</v>
       </c>
       <c r="W75">
         <v>7</v>
       </c>
-      <c r="X75" s="16">
+      <c r="X75">
         <v>25</v>
       </c>
       <c r="Y75" t="s">
         <v>2605</v>
       </c>
       <c r="Z75">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA75" t="s">
         <v>2608</v>
@@ -39963,13 +39983,13 @@
         <v>2631</v>
       </c>
       <c r="AK75">
-        <v>49.17</v>
+        <v>0</v>
       </c>
       <c r="AL75" t="s">
         <v>2617</v>
       </c>
       <c r="AM75">
-        <v>3.411999999999999</v>
+        <v>0</v>
       </c>
       <c r="AN75">
         <v>6</v>
@@ -39978,7 +39998,7 @@
         <v>25</v>
       </c>
       <c r="AP75">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>-10</v>
@@ -39992,9 +40012,9 @@
         <v>1801</v>
       </c>
       <c r="B76" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C76" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C76" t="s">
         <v>2591</v>
       </c>
       <c r="D76" t="s">
@@ -40021,20 +40041,20 @@
       <c r="U76" t="s">
         <v>2627</v>
       </c>
-      <c r="V76" s="16">
+      <c r="V76">
         <v>4</v>
       </c>
       <c r="W76">
         <v>7</v>
       </c>
-      <c r="X76" s="16">
+      <c r="X76">
         <v>25</v>
       </c>
       <c r="Y76" t="s">
         <v>2605</v>
       </c>
       <c r="Z76">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="s">
         <v>2608</v>
@@ -40067,13 +40087,13 @@
         <v>2631</v>
       </c>
       <c r="AK76">
-        <v>65.206000000000003</v>
+        <v>0</v>
       </c>
       <c r="AL76" t="s">
         <v>2617</v>
       </c>
       <c r="AM76">
-        <v>5.117999999999995</v>
+        <v>0</v>
       </c>
       <c r="AN76">
         <v>6</v>
@@ -40082,7 +40102,7 @@
         <v>25</v>
       </c>
       <c r="AP76">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AQ76">
         <v>-10</v>
@@ -40096,9 +40116,9 @@
         <v>1801</v>
       </c>
       <c r="B77" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C77" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C77" t="s">
         <v>2591</v>
       </c>
       <c r="D77" t="s">
@@ -40125,20 +40145,20 @@
       <c r="U77" t="s">
         <v>2627</v>
       </c>
-      <c r="V77" s="16">
+      <c r="V77">
         <v>4</v>
       </c>
       <c r="W77">
         <v>7</v>
       </c>
-      <c r="X77" s="16">
+      <c r="X77">
         <v>25</v>
       </c>
       <c r="Y77" t="s">
         <v>2605</v>
       </c>
       <c r="Z77">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA77" t="s">
         <v>2608</v>
@@ -40171,13 +40191,13 @@
         <v>2631</v>
       </c>
       <c r="AK77">
-        <v>71.86</v>
+        <v>5.6660000000000004</v>
       </c>
       <c r="AL77" t="s">
         <v>2617</v>
       </c>
       <c r="AM77">
-        <v>3.9230000000000018</v>
+        <v>1.7059999999999995</v>
       </c>
       <c r="AN77">
         <v>6</v>
@@ -40186,7 +40206,7 @@
         <v>25</v>
       </c>
       <c r="AP77">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AQ77">
         <v>-10</v>
@@ -40200,9 +40220,9 @@
         <v>1801</v>
       </c>
       <c r="B78" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C78" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C78" t="s">
         <v>2591</v>
       </c>
       <c r="D78" t="s">
@@ -40229,20 +40249,20 @@
       <c r="U78" t="s">
         <v>2627</v>
       </c>
-      <c r="V78" s="16">
+      <c r="V78">
         <v>4</v>
       </c>
       <c r="W78">
         <v>7</v>
       </c>
-      <c r="X78" s="16">
+      <c r="X78">
         <v>25</v>
       </c>
       <c r="Y78" t="s">
         <v>2605</v>
       </c>
       <c r="Z78">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA78" t="s">
         <v>2608</v>
@@ -40275,13 +40295,13 @@
         <v>2631</v>
       </c>
       <c r="AK78">
-        <v>75.100999999999999</v>
+        <v>16.244</v>
       </c>
       <c r="AL78" t="s">
         <v>2617</v>
       </c>
       <c r="AM78">
-        <v>3.4120000000000061</v>
+        <v>3.5820000000000007</v>
       </c>
       <c r="AN78">
         <v>6</v>
@@ -40290,7 +40310,7 @@
         <v>25</v>
       </c>
       <c r="AP78">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AQ78">
         <v>-10</v>
@@ -40304,9 +40324,9 @@
         <v>1801</v>
       </c>
       <c r="B79" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C79" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C79" t="s">
         <v>2591</v>
       </c>
       <c r="D79" t="s">
@@ -40333,20 +40353,20 @@
       <c r="U79" t="s">
         <v>2627</v>
       </c>
-      <c r="V79" s="16">
+      <c r="V79">
         <v>4</v>
       </c>
       <c r="W79">
         <v>7</v>
       </c>
-      <c r="X79" s="16">
+      <c r="X79">
         <v>25</v>
       </c>
       <c r="Y79" t="s">
         <v>2605</v>
       </c>
       <c r="Z79">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA79" t="s">
         <v>2608</v>
@@ -40379,13 +40399,13 @@
         <v>2631</v>
       </c>
       <c r="AK79">
-        <v>76.465999999999994</v>
+        <v>49.17</v>
       </c>
       <c r="AL79" t="s">
         <v>2617</v>
       </c>
       <c r="AM79">
-        <v>3.7530000000000001</v>
+        <v>3.411999999999999</v>
       </c>
       <c r="AN79">
         <v>6</v>
@@ -40394,7 +40414,7 @@
         <v>25</v>
       </c>
       <c r="AP79">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AQ79">
         <v>-10</v>
@@ -40408,9 +40428,9 @@
         <v>1801</v>
       </c>
       <c r="B80" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C80" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C80" t="s">
         <v>2591</v>
       </c>
       <c r="D80" t="s">
@@ -40437,20 +40457,20 @@
       <c r="U80" t="s">
         <v>2627</v>
       </c>
-      <c r="V80" s="16">
+      <c r="V80">
         <v>4</v>
       </c>
       <c r="W80">
         <v>7</v>
       </c>
-      <c r="X80" s="16">
+      <c r="X80">
         <v>25</v>
       </c>
       <c r="Y80" t="s">
         <v>2605</v>
       </c>
       <c r="Z80">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA80" t="s">
         <v>2608</v>
@@ -40483,13 +40503,13 @@
         <v>2631</v>
       </c>
       <c r="AK80">
-        <v>77.147999999999996</v>
+        <v>65.206000000000003</v>
       </c>
       <c r="AL80" t="s">
         <v>2617</v>
       </c>
       <c r="AM80">
-        <v>3.4120000000000061</v>
+        <v>5.117999999999995</v>
       </c>
       <c r="AN80">
         <v>6</v>
@@ -40498,7 +40518,7 @@
         <v>25</v>
       </c>
       <c r="AP80">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AQ80">
         <v>-10</v>
@@ -40512,9 +40532,9 @@
         <v>1801</v>
       </c>
       <c r="B81" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C81" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C81" t="s">
         <v>2591</v>
       </c>
       <c r="D81" t="s">
@@ -40541,20 +40561,20 @@
       <c r="U81" t="s">
         <v>2627</v>
       </c>
-      <c r="V81" s="16">
+      <c r="V81">
         <v>4</v>
       </c>
       <c r="W81">
         <v>7</v>
       </c>
-      <c r="X81" s="16">
+      <c r="X81">
         <v>25</v>
       </c>
       <c r="Y81" t="s">
         <v>2605</v>
       </c>
       <c r="Z81">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA81" t="s">
         <v>2608</v>
@@ -40587,13 +40607,13 @@
         <v>2631</v>
       </c>
       <c r="AK81">
-        <v>77.147999999999996</v>
+        <v>71.86</v>
       </c>
       <c r="AL81" t="s">
         <v>2617</v>
       </c>
       <c r="AM81">
-        <v>3.4120000000000061</v>
+        <v>3.9230000000000018</v>
       </c>
       <c r="AN81">
         <v>6</v>
@@ -40602,7 +40622,7 @@
         <v>25</v>
       </c>
       <c r="AP81">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AQ81">
         <v>-10</v>
@@ -40616,16 +40636,16 @@
         <v>1801</v>
       </c>
       <c r="B82" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C82" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C82" t="s">
         <v>2591</v>
       </c>
       <c r="D82" t="s">
         <v>572</v>
       </c>
       <c r="E82" t="s">
-        <v>2632</v>
+        <v>1800</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -40643,31 +40663,31 @@
         <v>2597</v>
       </c>
       <c r="U82" t="s">
-        <v>2630</v>
-      </c>
-      <c r="V82" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W82" t="s">
-        <v>39</v>
-      </c>
-      <c r="X82" s="16">
+        <v>2627</v>
+      </c>
+      <c r="V82">
+        <v>4</v>
+      </c>
+      <c r="W82">
+        <v>7</v>
+      </c>
+      <c r="X82">
         <v>25</v>
       </c>
       <c r="Y82" t="s">
-        <v>39</v>
+        <v>2605</v>
       </c>
       <c r="Z82">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA82" t="s">
-        <v>39</v>
+        <v>2608</v>
       </c>
       <c r="AB82" t="s">
-        <v>39</v>
+        <v>2609</v>
       </c>
       <c r="AC82" t="s">
-        <v>39</v>
+        <v>2621</v>
       </c>
       <c r="AD82" t="s">
         <v>40</v>
@@ -40676,13 +40696,13 @@
         <v>39</v>
       </c>
       <c r="AF82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG82" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH82" t="s">
-        <v>39</v>
+        <v>2611</v>
+      </c>
+      <c r="AH82">
+        <v>1</v>
       </c>
       <c r="AI82" t="s">
         <v>39</v>
@@ -40691,13 +40711,13 @@
         <v>2631</v>
       </c>
       <c r="AK82">
-        <v>-0.161</v>
+        <v>75.100999999999999</v>
       </c>
       <c r="AL82" t="s">
         <v>2617</v>
       </c>
       <c r="AM82">
-        <v>-0.161</v>
+        <v>3.4120000000000061</v>
       </c>
       <c r="AN82">
         <v>6</v>
@@ -40706,16 +40726,13 @@
         <v>25</v>
       </c>
       <c r="AP82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ82">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR82" t="s">
         <v>2616</v>
-      </c>
-      <c r="AS82" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="83" spans="1:45" x14ac:dyDescent="0.2">
@@ -40723,16 +40740,16 @@
         <v>1801</v>
       </c>
       <c r="B83" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C83" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C83" t="s">
         <v>2591</v>
       </c>
       <c r="D83" t="s">
         <v>572</v>
       </c>
       <c r="E83" t="s">
-        <v>2632</v>
+        <v>1800</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -40750,31 +40767,31 @@
         <v>2597</v>
       </c>
       <c r="U83" t="s">
-        <v>2630</v>
-      </c>
-      <c r="V83" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W83" t="s">
-        <v>39</v>
-      </c>
-      <c r="X83" s="16">
+        <v>2627</v>
+      </c>
+      <c r="V83">
+        <v>4</v>
+      </c>
+      <c r="W83">
+        <v>7</v>
+      </c>
+      <c r="X83">
         <v>25</v>
       </c>
       <c r="Y83" t="s">
-        <v>39</v>
+        <v>2605</v>
       </c>
       <c r="Z83">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA83" t="s">
-        <v>39</v>
+        <v>2608</v>
       </c>
       <c r="AB83" t="s">
-        <v>39</v>
+        <v>2609</v>
       </c>
       <c r="AC83" t="s">
-        <v>39</v>
+        <v>2621</v>
       </c>
       <c r="AD83" t="s">
         <v>40</v>
@@ -40783,13 +40800,13 @@
         <v>39</v>
       </c>
       <c r="AF83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG83" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>39</v>
+        <v>2611</v>
+      </c>
+      <c r="AH83">
+        <v>1</v>
       </c>
       <c r="AI83" t="s">
         <v>39</v>
@@ -40798,13 +40815,13 @@
         <v>2631</v>
       </c>
       <c r="AK83">
-        <v>3.6999999999999998E-2</v>
+        <v>76.465999999999994</v>
       </c>
       <c r="AL83" t="s">
         <v>2617</v>
       </c>
       <c r="AM83">
-        <v>-0.34199999999999997</v>
+        <v>3.7530000000000001</v>
       </c>
       <c r="AN83">
         <v>6</v>
@@ -40813,16 +40830,13 @@
         <v>25</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AQ83">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR83" t="s">
         <v>2616</v>
-      </c>
-      <c r="AS83" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="84" spans="1:45" x14ac:dyDescent="0.2">
@@ -40830,16 +40844,16 @@
         <v>1801</v>
       </c>
       <c r="B84" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C84" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C84" t="s">
         <v>2591</v>
       </c>
       <c r="D84" t="s">
         <v>572</v>
       </c>
       <c r="E84" t="s">
-        <v>2632</v>
+        <v>1800</v>
       </c>
       <c r="F84" t="s">
         <v>39</v>
@@ -40857,31 +40871,31 @@
         <v>2597</v>
       </c>
       <c r="U84" t="s">
-        <v>2630</v>
-      </c>
-      <c r="V84" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W84" t="s">
-        <v>39</v>
-      </c>
-      <c r="X84" s="16">
+        <v>2627</v>
+      </c>
+      <c r="V84">
+        <v>4</v>
+      </c>
+      <c r="W84">
+        <v>7</v>
+      </c>
+      <c r="X84">
         <v>25</v>
       </c>
       <c r="Y84" t="s">
-        <v>39</v>
+        <v>2605</v>
       </c>
       <c r="Z84">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA84" t="s">
-        <v>39</v>
+        <v>2608</v>
       </c>
       <c r="AB84" t="s">
-        <v>39</v>
+        <v>2609</v>
       </c>
       <c r="AC84" t="s">
-        <v>39</v>
+        <v>2621</v>
       </c>
       <c r="AD84" t="s">
         <v>40</v>
@@ -40890,13 +40904,13 @@
         <v>39</v>
       </c>
       <c r="AF84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG84" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH84" t="s">
-        <v>39</v>
+        <v>2611</v>
+      </c>
+      <c r="AH84">
+        <v>1</v>
       </c>
       <c r="AI84" t="s">
         <v>39</v>
@@ -40905,13 +40919,13 @@
         <v>2631</v>
       </c>
       <c r="AK84">
-        <v>-0.13400000000000001</v>
+        <v>77.147999999999996</v>
       </c>
       <c r="AL84" t="s">
         <v>2617</v>
       </c>
       <c r="AM84">
-        <v>-0.17099999999999999</v>
+        <v>3.4120000000000061</v>
       </c>
       <c r="AN84">
         <v>6</v>
@@ -40920,16 +40934,13 @@
         <v>25</v>
       </c>
       <c r="AP84">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AQ84">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR84" t="s">
         <v>2616</v>
-      </c>
-      <c r="AS84" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="85" spans="1:45" x14ac:dyDescent="0.2">
@@ -40937,16 +40948,16 @@
         <v>1801</v>
       </c>
       <c r="B85" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C85" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C85" t="s">
         <v>2591</v>
       </c>
       <c r="D85" t="s">
         <v>572</v>
       </c>
       <c r="E85" t="s">
-        <v>2632</v>
+        <v>1800</v>
       </c>
       <c r="F85" t="s">
         <v>39</v>
@@ -40964,31 +40975,31 @@
         <v>2597</v>
       </c>
       <c r="U85" t="s">
-        <v>2630</v>
-      </c>
-      <c r="V85" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W85" t="s">
-        <v>39</v>
-      </c>
-      <c r="X85" s="16">
+        <v>2627</v>
+      </c>
+      <c r="V85">
+        <v>4</v>
+      </c>
+      <c r="W85">
+        <v>7</v>
+      </c>
+      <c r="X85">
         <v>25</v>
       </c>
       <c r="Y85" t="s">
-        <v>39</v>
+        <v>2605</v>
       </c>
       <c r="Z85">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA85" t="s">
-        <v>39</v>
+        <v>2608</v>
       </c>
       <c r="AB85" t="s">
-        <v>39</v>
+        <v>2609</v>
       </c>
       <c r="AC85" t="s">
-        <v>39</v>
+        <v>2621</v>
       </c>
       <c r="AD85" t="s">
         <v>40</v>
@@ -40997,13 +41008,13 @@
         <v>39</v>
       </c>
       <c r="AF85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG85" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH85" t="s">
-        <v>39</v>
+        <v>2611</v>
+      </c>
+      <c r="AH85">
+        <v>1</v>
       </c>
       <c r="AI85" t="s">
         <v>39</v>
@@ -41012,13 +41023,13 @@
         <v>2631</v>
       </c>
       <c r="AK85">
-        <v>3.6999999999999998E-2</v>
+        <v>77.147999999999996</v>
       </c>
       <c r="AL85" t="s">
         <v>2617</v>
       </c>
       <c r="AM85">
-        <v>-0.17100000000000001</v>
+        <v>3.4120000000000061</v>
       </c>
       <c r="AN85">
         <v>6</v>
@@ -41027,16 +41038,13 @@
         <v>25</v>
       </c>
       <c r="AP85">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AQ85">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR85" t="s">
         <v>2616</v>
-      </c>
-      <c r="AS85" t="s">
-        <v>2620</v>
       </c>
     </row>
     <row r="86" spans="1:45" x14ac:dyDescent="0.2">
@@ -41044,16 +41052,16 @@
         <v>1801</v>
       </c>
       <c r="B86" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C86" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C86" t="s">
         <v>2591</v>
       </c>
       <c r="D86" t="s">
         <v>572</v>
       </c>
       <c r="E86" t="s">
-        <v>2632</v>
+        <v>1800</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -41071,31 +41079,31 @@
         <v>2597</v>
       </c>
       <c r="U86" t="s">
-        <v>2630</v>
-      </c>
-      <c r="V86" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W86" t="s">
-        <v>39</v>
-      </c>
-      <c r="X86" s="16">
+        <v>2627</v>
+      </c>
+      <c r="V86">
+        <v>4</v>
+      </c>
+      <c r="W86">
+        <v>7</v>
+      </c>
+      <c r="X86">
         <v>25</v>
       </c>
       <c r="Y86" t="s">
-        <v>39</v>
+        <v>2605</v>
       </c>
       <c r="Z86">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA86" t="s">
-        <v>39</v>
+        <v>2608</v>
       </c>
       <c r="AB86" t="s">
-        <v>39</v>
+        <v>2609</v>
       </c>
       <c r="AC86" t="s">
-        <v>39</v>
+        <v>2621</v>
       </c>
       <c r="AD86" t="s">
         <v>40</v>
@@ -41104,13 +41112,13 @@
         <v>39</v>
       </c>
       <c r="AF86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG86" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH86" t="s">
-        <v>39</v>
+        <v>2611</v>
+      </c>
+      <c r="AH86">
+        <v>1</v>
       </c>
       <c r="AI86" t="s">
         <v>39</v>
@@ -41119,13 +41127,13 @@
         <v>2631</v>
       </c>
       <c r="AK86">
-        <v>-0.30499999999999999</v>
+        <v>49.3</v>
       </c>
       <c r="AL86" t="s">
         <v>2617</v>
       </c>
-      <c r="AM86">
-        <v>0</v>
+      <c r="AM86" t="s">
+        <v>39</v>
       </c>
       <c r="AN86">
         <v>6</v>
@@ -41134,16 +41142,13 @@
         <v>25</v>
       </c>
       <c r="AP86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ86">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR86" t="s">
-        <v>2616</v>
-      </c>
-      <c r="AS86" t="s">
-        <v>2620</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="87" spans="1:45" x14ac:dyDescent="0.2">
@@ -41151,16 +41156,16 @@
         <v>1801</v>
       </c>
       <c r="B87" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C87" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C87" t="s">
         <v>2591</v>
       </c>
       <c r="D87" t="s">
         <v>572</v>
       </c>
       <c r="E87" t="s">
-        <v>2632</v>
+        <v>1800</v>
       </c>
       <c r="F87" t="s">
         <v>39</v>
@@ -41178,31 +41183,31 @@
         <v>2597</v>
       </c>
       <c r="U87" t="s">
-        <v>2630</v>
-      </c>
-      <c r="V87" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W87" t="s">
-        <v>39</v>
-      </c>
-      <c r="X87" s="16">
+        <v>2627</v>
+      </c>
+      <c r="V87">
+        <v>4</v>
+      </c>
+      <c r="W87">
+        <v>7</v>
+      </c>
+      <c r="X87">
         <v>25</v>
       </c>
       <c r="Y87" t="s">
-        <v>39</v>
+        <v>2605</v>
       </c>
       <c r="Z87">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA87" t="s">
-        <v>39</v>
+        <v>2608</v>
       </c>
       <c r="AB87" t="s">
-        <v>39</v>
+        <v>2609</v>
       </c>
       <c r="AC87" t="s">
-        <v>39</v>
+        <v>2621</v>
       </c>
       <c r="AD87" t="s">
         <v>40</v>
@@ -41211,13 +41216,13 @@
         <v>39</v>
       </c>
       <c r="AF87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG87" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH87" t="s">
-        <v>39</v>
+        <v>2611</v>
+      </c>
+      <c r="AH87">
+        <v>1</v>
       </c>
       <c r="AI87" t="s">
         <v>39</v>
@@ -41226,13 +41231,13 @@
         <v>2631</v>
       </c>
       <c r="AK87">
-        <v>13.685</v>
+        <v>77.3</v>
       </c>
       <c r="AL87" t="s">
         <v>2617</v>
       </c>
-      <c r="AM87">
-        <v>5.6289999999999996</v>
+      <c r="AM87" t="s">
+        <v>39</v>
       </c>
       <c r="AN87">
         <v>6</v>
@@ -41241,13 +41246,13 @@
         <v>25</v>
       </c>
       <c r="AP87">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AQ87">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR87" t="s">
-        <v>2616</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="88" spans="1:45" x14ac:dyDescent="0.2">
@@ -41255,16 +41260,16 @@
         <v>1801</v>
       </c>
       <c r="B88" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C88" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C88" t="s">
         <v>2591</v>
       </c>
       <c r="D88" t="s">
         <v>572</v>
       </c>
       <c r="E88" t="s">
-        <v>2632</v>
+        <v>1800</v>
       </c>
       <c r="F88" t="s">
         <v>39</v>
@@ -41282,31 +41287,31 @@
         <v>2597</v>
       </c>
       <c r="U88" t="s">
-        <v>2630</v>
-      </c>
-      <c r="V88" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W88" t="s">
-        <v>39</v>
-      </c>
-      <c r="X88" s="16">
+        <v>2627</v>
+      </c>
+      <c r="V88">
+        <v>4</v>
+      </c>
+      <c r="W88">
+        <v>7</v>
+      </c>
+      <c r="X88">
         <v>25</v>
       </c>
       <c r="Y88" t="s">
-        <v>39</v>
+        <v>2605</v>
       </c>
       <c r="Z88">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA88" t="s">
-        <v>39</v>
+        <v>2608</v>
       </c>
       <c r="AB88" t="s">
-        <v>39</v>
+        <v>2609</v>
       </c>
       <c r="AC88" t="s">
-        <v>39</v>
+        <v>2621</v>
       </c>
       <c r="AD88" t="s">
         <v>40</v>
@@ -41315,28 +41320,28 @@
         <v>39</v>
       </c>
       <c r="AF88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG88" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH88" t="s">
-        <v>39</v>
+        <v>2611</v>
+      </c>
+      <c r="AH88">
+        <v>1</v>
       </c>
       <c r="AI88" t="s">
         <v>39</v>
       </c>
       <c r="AJ88" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="AK88">
-        <v>39.786999999999999</v>
+        <v>60.8</v>
       </c>
       <c r="AL88" t="s">
         <v>2617</v>
       </c>
-      <c r="AM88">
-        <v>8.1880000000000024</v>
+      <c r="AM88" t="s">
+        <v>39</v>
       </c>
       <c r="AN88">
         <v>6</v>
@@ -41345,13 +41350,13 @@
         <v>25</v>
       </c>
       <c r="AP88">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AQ88">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR88" t="s">
-        <v>2616</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="89" spans="1:45" x14ac:dyDescent="0.2">
@@ -41359,16 +41364,16 @@
         <v>1801</v>
       </c>
       <c r="B89" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C89" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C89" t="s">
         <v>2591</v>
       </c>
       <c r="D89" t="s">
         <v>572</v>
       </c>
       <c r="E89" t="s">
-        <v>2632</v>
+        <v>1800</v>
       </c>
       <c r="F89" t="s">
         <v>39</v>
@@ -41386,31 +41391,31 @@
         <v>2597</v>
       </c>
       <c r="U89" t="s">
-        <v>2630</v>
-      </c>
-      <c r="V89" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="W89" t="s">
-        <v>39</v>
-      </c>
-      <c r="X89" s="16">
+        <v>2627</v>
+      </c>
+      <c r="V89">
+        <v>4</v>
+      </c>
+      <c r="W89">
+        <v>7</v>
+      </c>
+      <c r="X89">
         <v>25</v>
       </c>
       <c r="Y89" t="s">
-        <v>39</v>
+        <v>2605</v>
       </c>
       <c r="Z89">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA89" t="s">
-        <v>39</v>
+        <v>2608</v>
       </c>
       <c r="AB89" t="s">
-        <v>39</v>
+        <v>2609</v>
       </c>
       <c r="AC89" t="s">
-        <v>39</v>
+        <v>2621</v>
       </c>
       <c r="AD89" t="s">
         <v>40</v>
@@ -41419,28 +41424,28 @@
         <v>39</v>
       </c>
       <c r="AF89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG89" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH89" t="s">
-        <v>39</v>
+        <v>2611</v>
+      </c>
+      <c r="AH89">
+        <v>1</v>
       </c>
       <c r="AI89" t="s">
         <v>39</v>
       </c>
       <c r="AJ89" t="s">
-        <v>2631</v>
+        <v>2626</v>
       </c>
       <c r="AK89">
-        <v>69.641999999999996</v>
+        <v>52.6</v>
       </c>
       <c r="AL89" t="s">
         <v>2617</v>
       </c>
-      <c r="AM89">
-        <v>5.2880000000000109</v>
+      <c r="AM89" t="s">
+        <v>39</v>
       </c>
       <c r="AN89">
         <v>6</v>
@@ -41449,13 +41454,13 @@
         <v>25</v>
       </c>
       <c r="AP89">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AQ89">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="AR89" t="s">
-        <v>2616</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="90" spans="1:45" x14ac:dyDescent="0.2">
@@ -41463,9 +41468,9 @@
         <v>1801</v>
       </c>
       <c r="B90" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C90" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C90" t="s">
         <v>2591</v>
       </c>
       <c r="D90" t="s">
@@ -41492,20 +41497,20 @@
       <c r="U90" t="s">
         <v>2630</v>
       </c>
-      <c r="V90" s="16" t="s">
+      <c r="V90" t="s">
         <v>39</v>
       </c>
       <c r="W90" t="s">
         <v>39</v>
       </c>
-      <c r="X90" s="16">
+      <c r="X90">
         <v>25</v>
       </c>
       <c r="Y90" t="s">
         <v>39</v>
       </c>
       <c r="Z90">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA90" t="s">
         <v>39</v>
@@ -41538,13 +41543,13 @@
         <v>2631</v>
       </c>
       <c r="AK90">
-        <v>90.966999999999999</v>
+        <v>0</v>
       </c>
       <c r="AL90" t="s">
         <v>2617</v>
       </c>
       <c r="AM90">
-        <v>1.5349999999999966</v>
+        <v>0</v>
       </c>
       <c r="AN90">
         <v>6</v>
@@ -41553,13 +41558,16 @@
         <v>25</v>
       </c>
       <c r="AP90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ90">
         <v>0</v>
       </c>
       <c r="AR90" t="s">
         <v>2616</v>
+      </c>
+      <c r="AS90" t="s">
+        <v>2620</v>
       </c>
     </row>
     <row r="91" spans="1:45" x14ac:dyDescent="0.2">
@@ -41567,9 +41575,9 @@
         <v>1801</v>
       </c>
       <c r="B91" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C91" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C91" t="s">
         <v>2591</v>
       </c>
       <c r="D91" t="s">
@@ -41596,20 +41604,20 @@
       <c r="U91" t="s">
         <v>2630</v>
       </c>
-      <c r="V91" s="16" t="s">
+      <c r="V91" t="s">
         <v>39</v>
       </c>
       <c r="W91" t="s">
         <v>39</v>
       </c>
-      <c r="X91" s="16">
+      <c r="X91">
         <v>25</v>
       </c>
       <c r="Y91" t="s">
         <v>39</v>
       </c>
       <c r="Z91">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA91" t="s">
         <v>39</v>
@@ -41642,13 +41650,13 @@
         <v>2631</v>
       </c>
       <c r="AK91">
-        <v>94.379000000000005</v>
+        <v>0</v>
       </c>
       <c r="AL91" t="s">
         <v>2617</v>
       </c>
       <c r="AM91">
-        <v>1.8769999999999953</v>
+        <v>0</v>
       </c>
       <c r="AN91">
         <v>6</v>
@@ -41657,13 +41665,16 @@
         <v>25</v>
       </c>
       <c r="AP91">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>0</v>
       </c>
       <c r="AR91" t="s">
         <v>2616</v>
+      </c>
+      <c r="AS91" t="s">
+        <v>2620</v>
       </c>
     </row>
     <row r="92" spans="1:45" x14ac:dyDescent="0.2">
@@ -41671,9 +41682,9 @@
         <v>1801</v>
       </c>
       <c r="B92" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C92" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C92" t="s">
         <v>2591</v>
       </c>
       <c r="D92" t="s">
@@ -41700,20 +41711,20 @@
       <c r="U92" t="s">
         <v>2630</v>
       </c>
-      <c r="V92" s="16" t="s">
+      <c r="V92" t="s">
         <v>39</v>
       </c>
       <c r="W92" t="s">
         <v>39</v>
       </c>
-      <c r="X92" s="16">
+      <c r="X92">
         <v>25</v>
       </c>
       <c r="Y92" t="s">
         <v>39</v>
       </c>
       <c r="Z92">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA92" t="s">
         <v>39</v>
@@ -41746,13 +41757,13 @@
         <v>2631</v>
       </c>
       <c r="AK92">
-        <v>94.379000000000005</v>
+        <v>0</v>
       </c>
       <c r="AL92" t="s">
         <v>2617</v>
       </c>
       <c r="AM92">
-        <v>2.046999999999997</v>
+        <v>0</v>
       </c>
       <c r="AN92">
         <v>6</v>
@@ -41761,13 +41772,16 @@
         <v>25</v>
       </c>
       <c r="AP92">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AQ92">
         <v>0</v>
       </c>
       <c r="AR92" t="s">
         <v>2616</v>
+      </c>
+      <c r="AS92" t="s">
+        <v>2620</v>
       </c>
     </row>
     <row r="93" spans="1:45" x14ac:dyDescent="0.2">
@@ -41775,9 +41789,9 @@
         <v>1801</v>
       </c>
       <c r="B93" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C93" s="15" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C93" t="s">
         <v>2591</v>
       </c>
       <c r="D93" t="s">
@@ -41804,20 +41818,20 @@
       <c r="U93" t="s">
         <v>2630</v>
       </c>
-      <c r="V93" s="16" t="s">
+      <c r="V93" t="s">
         <v>39</v>
       </c>
       <c r="W93" t="s">
         <v>39</v>
       </c>
-      <c r="X93" s="16">
+      <c r="X93">
         <v>25</v>
       </c>
       <c r="Y93" t="s">
         <v>39</v>
       </c>
       <c r="Z93">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA93" t="s">
         <v>39</v>
@@ -41850,13 +41864,13 @@
         <v>2631</v>
       </c>
       <c r="AK93">
-        <v>95.061000000000007</v>
+        <v>0</v>
       </c>
       <c r="AL93" t="s">
         <v>2617</v>
       </c>
       <c r="AM93">
-        <v>1.5359999999999872</v>
+        <v>0</v>
       </c>
       <c r="AN93">
         <v>6</v>
@@ -41865,7 +41879,7 @@
         <v>25</v>
       </c>
       <c r="AP93">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AQ93">
         <v>0</v>
@@ -41873,217 +41887,1328 @@
       <c r="AR93" t="s">
         <v>2616</v>
       </c>
+      <c r="AS93" t="s">
+        <v>2620</v>
+      </c>
     </row>
     <row r="94" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="S94" s="7"/>
-      <c r="T94" s="8"/>
-      <c r="AC94" s="2"/>
+      <c r="A94" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D94" t="s">
+        <v>572</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F94" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" t="s">
+        <v>41</v>
+      </c>
+      <c r="H94" t="s">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M94" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U94" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V94" t="s">
+        <v>39</v>
+      </c>
+      <c r="W94" t="s">
+        <v>39</v>
+      </c>
+      <c r="X94">
+        <v>25</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK94">
+        <v>0</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM94">
+        <v>0</v>
+      </c>
+      <c r="AN94">
+        <v>6</v>
+      </c>
+      <c r="AO94">
+        <v>25</v>
+      </c>
+      <c r="AP94">
+        <v>6</v>
+      </c>
+      <c r="AQ94">
+        <v>0</v>
+      </c>
+      <c r="AR94" t="s">
+        <v>2616</v>
+      </c>
+      <c r="AS94" t="s">
+        <v>2620</v>
+      </c>
     </row>
     <row r="95" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="S95" s="7"/>
-      <c r="T95" s="8"/>
-      <c r="AA95" s="2"/>
-      <c r="AC95" s="2"/>
+      <c r="A95" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D95" t="s">
+        <v>572</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" t="s">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M95" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U95" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V95" t="s">
+        <v>39</v>
+      </c>
+      <c r="W95" t="s">
+        <v>39</v>
+      </c>
+      <c r="X95">
+        <v>25</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF95" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ95" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK95">
+        <v>13.685</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM95">
+        <v>5.6289999999999996</v>
+      </c>
+      <c r="AN95">
+        <v>6</v>
+      </c>
+      <c r="AO95">
+        <v>25</v>
+      </c>
+      <c r="AP95">
+        <v>7</v>
+      </c>
+      <c r="AQ95">
+        <v>0</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>2616</v>
+      </c>
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="S96" s="7"/>
-      <c r="T96" s="8"/>
-      <c r="AA96" s="2"/>
-      <c r="AC96" s="2"/>
-    </row>
-    <row r="97" spans="19:35" x14ac:dyDescent="0.2">
-      <c r="S97" s="7"/>
-      <c r="T97" s="8"/>
-      <c r="AA97" s="2"/>
-      <c r="AC97" s="2"/>
-    </row>
-    <row r="98" spans="19:35" x14ac:dyDescent="0.2">
-      <c r="S98" s="7"/>
-      <c r="T98" s="8"/>
-      <c r="AC98" s="2"/>
-    </row>
-    <row r="99" spans="19:35" x14ac:dyDescent="0.2">
-      <c r="S99" s="7"/>
-      <c r="T99" s="8"/>
-      <c r="AC99" s="2"/>
-    </row>
-    <row r="100" spans="19:35" x14ac:dyDescent="0.2">
-      <c r="S100" s="7"/>
-      <c r="T100" s="8"/>
-      <c r="AA100" s="2"/>
-      <c r="AC100" s="2"/>
-    </row>
-    <row r="101" spans="19:35" x14ac:dyDescent="0.2">
-      <c r="S101" s="7"/>
-      <c r="T101" s="8"/>
-      <c r="AA101" s="2"/>
-      <c r="AC101" s="2"/>
-    </row>
-    <row r="102" spans="19:35" x14ac:dyDescent="0.2">
-      <c r="S102" s="7"/>
-      <c r="T102" s="8"/>
-      <c r="AA102" s="2"/>
-    </row>
-    <row r="103" spans="19:35" x14ac:dyDescent="0.2">
-      <c r="S103" s="7"/>
-      <c r="T103" s="8"/>
-    </row>
-    <row r="104" spans="19:35" x14ac:dyDescent="0.2">
-      <c r="S104" s="7"/>
-      <c r="T104" s="8"/>
-    </row>
-    <row r="105" spans="19:35" x14ac:dyDescent="0.2">
-      <c r="S105" s="7"/>
-      <c r="T105" s="8"/>
-      <c r="AA105" s="2"/>
-    </row>
-    <row r="106" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D96" t="s">
+        <v>572</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F96" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" t="s">
+        <v>41</v>
+      </c>
+      <c r="H96" t="s">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M96" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U96" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V96" t="s">
+        <v>39</v>
+      </c>
+      <c r="W96" t="s">
+        <v>39</v>
+      </c>
+      <c r="X96">
+        <v>25</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD96" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE96" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG96" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK96">
+        <v>39.786999999999999</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM96">
+        <v>8.1880000000000024</v>
+      </c>
+      <c r="AN96">
+        <v>6</v>
+      </c>
+      <c r="AO96">
+        <v>25</v>
+      </c>
+      <c r="AP96">
+        <v>8</v>
+      </c>
+      <c r="AQ96">
+        <v>0</v>
+      </c>
+      <c r="AR96" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D97" t="s">
+        <v>572</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F97" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" t="s">
+        <v>41</v>
+      </c>
+      <c r="H97" t="s">
+        <v>40</v>
+      </c>
+      <c r="I97" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M97" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U97" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V97" t="s">
+        <v>39</v>
+      </c>
+      <c r="W97" t="s">
+        <v>39</v>
+      </c>
+      <c r="X97">
+        <v>25</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC97" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD97" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE97" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF97" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG97" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ97" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK97">
+        <v>69.641999999999996</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM97">
+        <v>5.2880000000000109</v>
+      </c>
+      <c r="AN97">
+        <v>6</v>
+      </c>
+      <c r="AO97">
+        <v>25</v>
+      </c>
+      <c r="AP97">
+        <v>9</v>
+      </c>
+      <c r="AQ97">
+        <v>0</v>
+      </c>
+      <c r="AR97" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D98" t="s">
+        <v>572</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F98" t="s">
+        <v>39</v>
+      </c>
+      <c r="G98" t="s">
+        <v>41</v>
+      </c>
+      <c r="H98" t="s">
+        <v>40</v>
+      </c>
+      <c r="I98" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M98" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U98" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V98" t="s">
+        <v>39</v>
+      </c>
+      <c r="W98" t="s">
+        <v>39</v>
+      </c>
+      <c r="X98">
+        <v>25</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC98" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD98" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE98" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG98" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ98" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK98">
+        <v>90.966999999999999</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM98">
+        <v>1.5349999999999966</v>
+      </c>
+      <c r="AN98">
+        <v>6</v>
+      </c>
+      <c r="AO98">
+        <v>25</v>
+      </c>
+      <c r="AP98">
+        <v>10</v>
+      </c>
+      <c r="AQ98">
+        <v>0</v>
+      </c>
+      <c r="AR98" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D99" t="s">
+        <v>572</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F99" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" t="s">
+        <v>41</v>
+      </c>
+      <c r="H99" t="s">
+        <v>40</v>
+      </c>
+      <c r="I99" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M99" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U99" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V99" t="s">
+        <v>39</v>
+      </c>
+      <c r="W99" t="s">
+        <v>39</v>
+      </c>
+      <c r="X99">
+        <v>25</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC99" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD99" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE99" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF99" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG99" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ99" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK99">
+        <v>94.379000000000005</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM99">
+        <v>1.8769999999999953</v>
+      </c>
+      <c r="AN99">
+        <v>6</v>
+      </c>
+      <c r="AO99">
+        <v>25</v>
+      </c>
+      <c r="AP99">
+        <v>12</v>
+      </c>
+      <c r="AQ99">
+        <v>0</v>
+      </c>
+      <c r="AR99" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D100" t="s">
+        <v>572</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F100" t="s">
+        <v>39</v>
+      </c>
+      <c r="G100" t="s">
+        <v>41</v>
+      </c>
+      <c r="H100" t="s">
+        <v>40</v>
+      </c>
+      <c r="I100" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M100" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U100" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V100" t="s">
+        <v>39</v>
+      </c>
+      <c r="W100" t="s">
+        <v>39</v>
+      </c>
+      <c r="X100">
+        <v>25</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ100" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK100">
+        <v>94.379000000000005</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM100">
+        <v>2.046999999999997</v>
+      </c>
+      <c r="AN100">
+        <v>6</v>
+      </c>
+      <c r="AO100">
+        <v>25</v>
+      </c>
+      <c r="AP100">
+        <v>13</v>
+      </c>
+      <c r="AQ100">
+        <v>0</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D101" t="s">
+        <v>572</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G101" t="s">
+        <v>41</v>
+      </c>
+      <c r="H101" t="s">
+        <v>40</v>
+      </c>
+      <c r="I101" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M101" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U101" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V101" t="s">
+        <v>39</v>
+      </c>
+      <c r="W101" t="s">
+        <v>39</v>
+      </c>
+      <c r="X101">
+        <v>25</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD101" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF101" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK101">
+        <v>95.061000000000007</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM101">
+        <v>1.5359999999999872</v>
+      </c>
+      <c r="AN101">
+        <v>6</v>
+      </c>
+      <c r="AO101">
+        <v>25</v>
+      </c>
+      <c r="AP101">
+        <v>14</v>
+      </c>
+      <c r="AQ101">
+        <v>0</v>
+      </c>
+      <c r="AR101" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D102" t="s">
+        <v>572</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F102" t="s">
+        <v>39</v>
+      </c>
+      <c r="G102" t="s">
+        <v>41</v>
+      </c>
+      <c r="H102" t="s">
+        <v>40</v>
+      </c>
+      <c r="I102" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M102" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U102" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V102" t="s">
+        <v>39</v>
+      </c>
+      <c r="W102" t="s">
+        <v>39</v>
+      </c>
+      <c r="X102">
+        <v>25</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z102">
+        <v>0</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK102">
+        <v>45.9</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN102">
+        <v>6</v>
+      </c>
+      <c r="AO102">
+        <v>25</v>
+      </c>
+      <c r="AP102">
+        <v>15</v>
+      </c>
+      <c r="AQ102">
+        <v>0</v>
+      </c>
+      <c r="AR102" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D103" t="s">
+        <v>572</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F103" t="s">
+        <v>39</v>
+      </c>
+      <c r="G103" t="s">
+        <v>41</v>
+      </c>
+      <c r="H103" t="s">
+        <v>40</v>
+      </c>
+      <c r="I103" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M103" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U103" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V103" t="s">
+        <v>39</v>
+      </c>
+      <c r="W103" t="s">
+        <v>39</v>
+      </c>
+      <c r="X103">
+        <v>25</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z103">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD103" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ103" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK103">
+        <v>63.6</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN103">
+        <v>6</v>
+      </c>
+      <c r="AO103">
+        <v>25</v>
+      </c>
+      <c r="AP103">
+        <v>16</v>
+      </c>
+      <c r="AQ103">
+        <v>0</v>
+      </c>
+      <c r="AR103" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D104" t="s">
+        <v>572</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F104" t="s">
+        <v>39</v>
+      </c>
+      <c r="G104" t="s">
+        <v>41</v>
+      </c>
+      <c r="H104" t="s">
+        <v>40</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M104" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U104" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V104" t="s">
+        <v>39</v>
+      </c>
+      <c r="W104" t="s">
+        <v>39</v>
+      </c>
+      <c r="X104">
+        <v>25</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD104" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ104" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK104">
+        <v>95.3</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN104">
+        <v>6</v>
+      </c>
+      <c r="AO104">
+        <v>25</v>
+      </c>
+      <c r="AP104">
+        <v>17</v>
+      </c>
+      <c r="AQ104">
+        <v>0</v>
+      </c>
+      <c r="AR104" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2634</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D105" t="s">
+        <v>572</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2632</v>
+      </c>
+      <c r="F105" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" t="s">
+        <v>40</v>
+      </c>
+      <c r="I105" t="s">
+        <v>2596</v>
+      </c>
+      <c r="M105" t="s">
+        <v>2597</v>
+      </c>
+      <c r="U105" t="s">
+        <v>2630</v>
+      </c>
+      <c r="V105" t="s">
+        <v>39</v>
+      </c>
+      <c r="W105" t="s">
+        <v>39</v>
+      </c>
+      <c r="X105">
+        <v>25</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z105">
+        <v>0</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD105" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF105" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ105" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AK105">
+        <v>14</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>2617</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN105">
+        <v>6</v>
+      </c>
+      <c r="AO105">
+        <v>25</v>
+      </c>
+      <c r="AP105">
+        <v>18</v>
+      </c>
+      <c r="AQ105">
+        <v>0</v>
+      </c>
+      <c r="AR105" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.2">
       <c r="S106" s="7"/>
       <c r="T106" s="8"/>
-      <c r="AA106" s="2"/>
-    </row>
-    <row r="107" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AC106" s="2"/>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.2">
       <c r="S107" s="7"/>
       <c r="T107" s="8"/>
-      <c r="AA107" s="2"/>
-    </row>
-    <row r="108" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AC107" s="2"/>
+    </row>
+    <row r="108" spans="1:44" x14ac:dyDescent="0.2">
       <c r="S108" s="7"/>
       <c r="T108" s="8"/>
-    </row>
-    <row r="109" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA108" s="2"/>
+      <c r="AC108" s="2"/>
+    </row>
+    <row r="109" spans="1:44" x14ac:dyDescent="0.2">
       <c r="S109" s="7"/>
       <c r="T109" s="8"/>
-    </row>
-    <row r="110" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA109" s="2"/>
+      <c r="AC109" s="2"/>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.2">
       <c r="S110" s="7"/>
       <c r="T110" s="8"/>
       <c r="AA110" s="2"/>
     </row>
-    <row r="111" spans="19:35" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.2">
       <c r="S111" s="7"/>
       <c r="T111" s="8"/>
-      <c r="AA111" s="2"/>
-    </row>
-    <row r="112" spans="19:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.2">
       <c r="S112" s="7"/>
       <c r="T112" s="8"/>
-      <c r="U112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="3"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="2"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="2"/>
-      <c r="AH112" s="2"/>
-      <c r="AI112" s="2"/>
     </row>
     <row r="113" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S113" s="7"/>
       <c r="T113" s="8"/>
-      <c r="U113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="3"/>
       <c r="AA113" s="2"/>
-      <c r="AB113" s="2"/>
-      <c r="AD113" s="2"/>
-      <c r="AE113" s="2"/>
-      <c r="AH113" s="2"/>
-      <c r="AI113" s="2"/>
     </row>
     <row r="114" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S114" s="7"/>
       <c r="T114" s="8"/>
-      <c r="U114" s="2"/>
-      <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="3"/>
       <c r="AA114" s="2"/>
-      <c r="AB114" s="2"/>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="2"/>
-      <c r="AH114" s="2"/>
-      <c r="AI114" s="2"/>
     </row>
     <row r="115" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S115" s="7"/>
       <c r="T115" s="8"/>
-      <c r="U115" s="2"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
-      <c r="Z115" s="3"/>
       <c r="AA115" s="2"/>
-      <c r="AB115" s="2"/>
-      <c r="AD115" s="2"/>
-      <c r="AE115" s="2"/>
-      <c r="AH115" s="2"/>
-      <c r="AI115" s="2"/>
     </row>
     <row r="116" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S116" s="7"/>
       <c r="T116" s="8"/>
-      <c r="U116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="3"/>
-      <c r="AA116" s="2"/>
-      <c r="AB116" s="2"/>
-      <c r="AD116" s="2"/>
-      <c r="AE116" s="2"/>
-      <c r="AH116" s="2"/>
-      <c r="AI116" s="2"/>
     </row>
     <row r="117" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S117" s="7"/>
       <c r="T117" s="8"/>
-      <c r="U117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
-      <c r="AA117" s="2"/>
-      <c r="AB117" s="2"/>
-      <c r="AD117" s="2"/>
-      <c r="AE117" s="2"/>
-      <c r="AH117" s="2"/>
-      <c r="AI117" s="2"/>
     </row>
     <row r="118" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S118" s="7"/>
       <c r="T118" s="8"/>
-      <c r="U118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
-      <c r="AB118" s="2"/>
-      <c r="AD118" s="2"/>
-      <c r="AE118" s="2"/>
-      <c r="AH118" s="2"/>
-      <c r="AI118" s="2"/>
     </row>
     <row r="119" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S119" s="7"/>
       <c r="T119" s="8"/>
-      <c r="U119" s="2"/>
-      <c r="W119" s="2"/>
-      <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
-      <c r="AB119" s="2"/>
-      <c r="AD119" s="2"/>
-      <c r="AE119" s="2"/>
-      <c r="AH119" s="2"/>
-      <c r="AI119" s="2"/>
     </row>
     <row r="120" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S120" s="7"/>
@@ -42092,7 +43217,7 @@
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
-      <c r="Z120" s="2"/>
+      <c r="Z120" s="3"/>
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AD120" s="2"/>
@@ -42107,7 +43232,7 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
+      <c r="Z121" s="3"/>
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AD121" s="2"/>
@@ -42119,49 +43244,121 @@
       <c r="S122" s="7"/>
       <c r="T122" s="8"/>
       <c r="U122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="3"/>
       <c r="AA122" s="2"/>
-      <c r="AC122" s="2"/>
+      <c r="AB122" s="2"/>
+      <c r="AD122" s="2"/>
+      <c r="AE122" s="2"/>
+      <c r="AH122" s="2"/>
+      <c r="AI122" s="2"/>
     </row>
     <row r="123" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S123" s="7"/>
       <c r="T123" s="8"/>
       <c r="U123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="3"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
+      <c r="AH123" s="2"/>
+      <c r="AI123" s="2"/>
     </row>
     <row r="124" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S124" s="7"/>
       <c r="T124" s="8"/>
       <c r="U124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+      <c r="AH124" s="2"/>
+      <c r="AI124" s="2"/>
     </row>
     <row r="125" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S125" s="7"/>
       <c r="T125" s="8"/>
       <c r="U125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
+      <c r="AH125" s="2"/>
+      <c r="AI125" s="2"/>
     </row>
     <row r="126" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S126" s="7"/>
       <c r="T126" s="8"/>
       <c r="U126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
+      <c r="AH126" s="2"/>
+      <c r="AI126" s="2"/>
     </row>
     <row r="127" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S127" s="7"/>
       <c r="T127" s="8"/>
       <c r="U127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
+      <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
-      <c r="AC127" s="2"/>
+      <c r="AB127" s="2"/>
+      <c r="AD127" s="2"/>
+      <c r="AE127" s="2"/>
+      <c r="AH127" s="2"/>
+      <c r="AI127" s="2"/>
     </row>
     <row r="128" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S128" s="7"/>
       <c r="T128" s="8"/>
       <c r="U128" s="2"/>
-      <c r="AC128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
+      <c r="AH128" s="2"/>
+      <c r="AI128" s="2"/>
     </row>
     <row r="129" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S129" s="7"/>
       <c r="T129" s="8"/>
       <c r="U129" s="2"/>
-      <c r="AC129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
+      <c r="AH129" s="2"/>
+      <c r="AI129" s="2"/>
     </row>
     <row r="130" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S130" s="7"/>
@@ -42174,27 +43371,23 @@
       <c r="S131" s="7"/>
       <c r="T131" s="8"/>
       <c r="U131" s="2"/>
-      <c r="AA131" s="2"/>
-      <c r="AC131" s="2"/>
     </row>
     <row r="132" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S132" s="7"/>
       <c r="T132" s="8"/>
       <c r="U132" s="2"/>
-      <c r="AA132" s="2"/>
-      <c r="AC132" s="2"/>
     </row>
     <row r="133" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S133" s="7"/>
       <c r="T133" s="8"/>
       <c r="U133" s="2"/>
-      <c r="AC133" s="2"/>
+      <c r="AA133" s="2"/>
     </row>
     <row r="134" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S134" s="7"/>
       <c r="T134" s="8"/>
       <c r="U134" s="2"/>
-      <c r="AC134" s="2"/>
+      <c r="AA134" s="2"/>
     </row>
     <row r="135" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S135" s="7"/>
@@ -42207,124 +43400,88 @@
       <c r="S136" s="7"/>
       <c r="T136" s="8"/>
       <c r="U136" s="2"/>
-      <c r="AA136" s="2"/>
       <c r="AC136" s="2"/>
     </row>
     <row r="137" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S137" s="7"/>
       <c r="T137" s="8"/>
       <c r="U137" s="2"/>
-      <c r="AA137" s="2"/>
+      <c r="AC137" s="2"/>
     </row>
     <row r="138" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S138" s="7"/>
       <c r="T138" s="8"/>
       <c r="U138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AC138" s="2"/>
     </row>
     <row r="139" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S139" s="7"/>
       <c r="T139" s="8"/>
       <c r="U139" s="2"/>
+      <c r="AA139" s="2"/>
+      <c r="AC139" s="2"/>
     </row>
     <row r="140" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S140" s="7"/>
       <c r="T140" s="8"/>
       <c r="U140" s="2"/>
       <c r="AA140" s="2"/>
+      <c r="AC140" s="2"/>
     </row>
     <row r="141" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S141" s="7"/>
       <c r="T141" s="8"/>
       <c r="U141" s="2"/>
-      <c r="AA141" s="2"/>
+      <c r="AC141" s="2"/>
     </row>
     <row r="142" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S142" s="7"/>
       <c r="T142" s="8"/>
       <c r="U142" s="2"/>
-      <c r="AA142" s="2"/>
-      <c r="AB142" s="2"/>
-      <c r="AD142" s="2"/>
-      <c r="AE142" s="2"/>
-      <c r="AH142" s="2"/>
-      <c r="AI142" s="2"/>
+      <c r="AC142" s="2"/>
     </row>
     <row r="143" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S143" s="7"/>
       <c r="T143" s="8"/>
       <c r="U143" s="2"/>
       <c r="AA143" s="2"/>
-      <c r="AB143" s="2"/>
-      <c r="AD143" s="2"/>
-      <c r="AE143" s="2"/>
-      <c r="AH143" s="2"/>
-      <c r="AI143" s="2"/>
+      <c r="AC143" s="2"/>
     </row>
     <row r="144" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S144" s="7"/>
       <c r="T144" s="8"/>
       <c r="U144" s="2"/>
       <c r="AA144" s="2"/>
-      <c r="AB144" s="2"/>
-      <c r="AD144" s="2"/>
-      <c r="AE144" s="2"/>
-      <c r="AH144" s="2"/>
-      <c r="AI144" s="2"/>
+      <c r="AC144" s="2"/>
     </row>
     <row r="145" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S145" s="7"/>
       <c r="T145" s="8"/>
       <c r="U145" s="2"/>
       <c r="AA145" s="2"/>
-      <c r="AB145" s="2"/>
-      <c r="AD145" s="2"/>
-      <c r="AE145" s="2"/>
-      <c r="AH145" s="2"/>
-      <c r="AI145" s="2"/>
     </row>
     <row r="146" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S146" s="7"/>
       <c r="T146" s="8"/>
       <c r="U146" s="2"/>
-      <c r="AA146" s="2"/>
-      <c r="AB146" s="2"/>
-      <c r="AD146" s="2"/>
-      <c r="AE146" s="2"/>
-      <c r="AH146" s="2"/>
-      <c r="AI146" s="2"/>
     </row>
     <row r="147" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S147" s="7"/>
       <c r="T147" s="8"/>
       <c r="U147" s="2"/>
-      <c r="AA147" s="2"/>
-      <c r="AB147" s="2"/>
-      <c r="AD147" s="2"/>
-      <c r="AE147" s="2"/>
-      <c r="AH147" s="2"/>
-      <c r="AI147" s="2"/>
     </row>
     <row r="148" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S148" s="7"/>
       <c r="T148" s="8"/>
       <c r="U148" s="2"/>
       <c r="AA148" s="2"/>
-      <c r="AB148" s="2"/>
-      <c r="AD148" s="2"/>
-      <c r="AE148" s="2"/>
-      <c r="AH148" s="2"/>
-      <c r="AI148" s="2"/>
     </row>
     <row r="149" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S149" s="7"/>
       <c r="T149" s="8"/>
       <c r="U149" s="2"/>
       <c r="AA149" s="2"/>
-      <c r="AB149" s="2"/>
-      <c r="AD149" s="2"/>
-      <c r="AE149" s="2"/>
-      <c r="AH149" s="2"/>
-      <c r="AI149" s="2"/>
     </row>
     <row r="150" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S150" s="7"/>
@@ -42352,130 +43509,150 @@
       <c r="S152" s="7"/>
       <c r="T152" s="8"/>
       <c r="U152" s="2"/>
-      <c r="W152" s="2"/>
-      <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
-      <c r="Z152" s="3"/>
       <c r="AA152" s="2"/>
+      <c r="AB152" s="2"/>
+      <c r="AD152" s="2"/>
+      <c r="AE152" s="2"/>
+      <c r="AH152" s="2"/>
+      <c r="AI152" s="2"/>
     </row>
     <row r="153" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S153" s="7"/>
       <c r="T153" s="8"/>
       <c r="U153" s="2"/>
-      <c r="V153" s="18"/>
-      <c r="W153" s="2"/>
-      <c r="X153" s="2"/>
-      <c r="Y153" s="2"/>
-      <c r="Z153" s="3"/>
+      <c r="AA153" s="2"/>
+      <c r="AB153" s="2"/>
+      <c r="AD153" s="2"/>
+      <c r="AE153" s="2"/>
+      <c r="AH153" s="2"/>
+      <c r="AI153" s="2"/>
     </row>
     <row r="154" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S154" s="7"/>
       <c r="T154" s="8"/>
       <c r="U154" s="2"/>
-      <c r="V154" s="18"/>
-      <c r="W154" s="2"/>
-      <c r="X154" s="2"/>
-      <c r="Y154" s="2"/>
-      <c r="Z154" s="3"/>
+      <c r="AA154" s="2"/>
+      <c r="AB154" s="2"/>
+      <c r="AD154" s="2"/>
+      <c r="AE154" s="2"/>
+      <c r="AH154" s="2"/>
+      <c r="AI154" s="2"/>
     </row>
     <row r="155" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S155" s="7"/>
       <c r="T155" s="8"/>
       <c r="U155" s="2"/>
-      <c r="V155" s="18"/>
-      <c r="W155" s="2"/>
-      <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
-      <c r="Z155" s="3"/>
       <c r="AA155" s="2"/>
+      <c r="AB155" s="2"/>
+      <c r="AD155" s="2"/>
+      <c r="AE155" s="2"/>
+      <c r="AH155" s="2"/>
+      <c r="AI155" s="2"/>
     </row>
     <row r="156" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S156" s="7"/>
       <c r="T156" s="8"/>
       <c r="U156" s="2"/>
-      <c r="V156" s="18"/>
-      <c r="W156" s="2"/>
-      <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
-      <c r="Z156" s="3"/>
       <c r="AA156" s="2"/>
+      <c r="AB156" s="2"/>
+      <c r="AD156" s="2"/>
+      <c r="AE156" s="2"/>
+      <c r="AH156" s="2"/>
+      <c r="AI156" s="2"/>
     </row>
     <row r="157" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S157" s="7"/>
       <c r="T157" s="8"/>
       <c r="U157" s="2"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="2"/>
-      <c r="Y157" s="2"/>
-      <c r="Z157" s="2"/>
       <c r="AA157" s="2"/>
-      <c r="AC157" s="2"/>
+      <c r="AB157" s="2"/>
+      <c r="AD157" s="2"/>
+      <c r="AE157" s="2"/>
+      <c r="AH157" s="2"/>
+      <c r="AI157" s="2"/>
     </row>
     <row r="158" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S158" s="7"/>
       <c r="T158" s="8"/>
       <c r="U158" s="2"/>
-      <c r="V158" s="18"/>
-      <c r="W158" s="2"/>
-      <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
+      <c r="AA158" s="2"/>
+      <c r="AB158" s="2"/>
+      <c r="AD158" s="2"/>
+      <c r="AE158" s="2"/>
+      <c r="AH158" s="2"/>
+      <c r="AI158" s="2"/>
     </row>
     <row r="159" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S159" s="7"/>
       <c r="T159" s="8"/>
       <c r="U159" s="2"/>
-      <c r="V159" s="18"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
+      <c r="AA159" s="2"/>
+      <c r="AB159" s="2"/>
+      <c r="AD159" s="2"/>
+      <c r="AE159" s="2"/>
+      <c r="AH159" s="2"/>
+      <c r="AI159" s="2"/>
     </row>
     <row r="160" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S160" s="7"/>
       <c r="T160" s="8"/>
       <c r="U160" s="2"/>
-      <c r="V160" s="18"/>
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
-      <c r="Z160" s="2"/>
+      <c r="Z160" s="3"/>
       <c r="AA160" s="2"/>
     </row>
     <row r="161" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S161" s="7"/>
       <c r="T161" s="8"/>
       <c r="U161" s="2"/>
-      <c r="V161" s="18"/>
+      <c r="V161" s="2"/>
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
-      <c r="Z161" s="2"/>
-      <c r="AA161" s="2"/>
+      <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S162" s="7"/>
       <c r="T162" s="8"/>
       <c r="U162" s="2"/>
-      <c r="AA162" s="2"/>
-      <c r="AC162" s="2"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
+      <c r="X162" s="2"/>
+      <c r="Y162" s="2"/>
+      <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S163" s="7"/>
       <c r="T163" s="8"/>
       <c r="U163" s="2"/>
-      <c r="AC163" s="2"/>
+      <c r="V163" s="2"/>
+      <c r="W163" s="2"/>
+      <c r="X163" s="2"/>
+      <c r="Y163" s="2"/>
+      <c r="Z163" s="3"/>
+      <c r="AA163" s="2"/>
     </row>
     <row r="164" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S164" s="7"/>
       <c r="T164" s="8"/>
       <c r="U164" s="2"/>
-      <c r="AC164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="Z164" s="3"/>
+      <c r="AA164" s="2"/>
     </row>
     <row r="165" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S165" s="7"/>
       <c r="T165" s="8"/>
       <c r="U165" s="2"/>
+      <c r="W165" s="2"/>
+      <c r="X165" s="2"/>
+      <c r="Y165" s="2"/>
+      <c r="Z165" s="2"/>
       <c r="AA165" s="2"/>
       <c r="AC165" s="2"/>
     </row>
@@ -42483,27 +43660,43 @@
       <c r="S166" s="7"/>
       <c r="T166" s="8"/>
       <c r="U166" s="2"/>
-      <c r="AA166" s="2"/>
-      <c r="AC166" s="2"/>
+      <c r="V166" s="2"/>
+      <c r="W166" s="2"/>
+      <c r="X166" s="2"/>
+      <c r="Y166" s="2"/>
+      <c r="Z166" s="2"/>
     </row>
     <row r="167" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S167" s="7"/>
       <c r="T167" s="8"/>
       <c r="U167" s="2"/>
-      <c r="AA167" s="2"/>
-      <c r="AC167" s="2"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="2"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
+      <c r="Z167" s="2"/>
     </row>
     <row r="168" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S168" s="7"/>
       <c r="T168" s="8"/>
       <c r="U168" s="2"/>
-      <c r="AC168" s="2"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="2"/>
+      <c r="AA168" s="2"/>
     </row>
     <row r="169" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S169" s="7"/>
       <c r="T169" s="8"/>
       <c r="U169" s="2"/>
-      <c r="AC169" s="2"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="2"/>
+      <c r="X169" s="2"/>
+      <c r="Y169" s="2"/>
+      <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
     </row>
     <row r="170" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S170" s="7"/>
@@ -42516,52 +43709,60 @@
       <c r="S171" s="7"/>
       <c r="T171" s="8"/>
       <c r="U171" s="2"/>
-      <c r="AA171" s="2"/>
       <c r="AC171" s="2"/>
     </row>
     <row r="172" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S172" s="7"/>
       <c r="T172" s="8"/>
       <c r="U172" s="2"/>
-      <c r="AA172" s="2"/>
+      <c r="AC172" s="2"/>
     </row>
     <row r="173" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S173" s="7"/>
       <c r="T173" s="8"/>
       <c r="U173" s="2"/>
+      <c r="AA173" s="2"/>
+      <c r="AC173" s="2"/>
     </row>
     <row r="174" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S174" s="7"/>
       <c r="T174" s="8"/>
       <c r="U174" s="2"/>
+      <c r="AA174" s="2"/>
+      <c r="AC174" s="2"/>
     </row>
     <row r="175" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S175" s="7"/>
       <c r="T175" s="8"/>
       <c r="U175" s="2"/>
       <c r="AA175" s="2"/>
+      <c r="AC175" s="2"/>
     </row>
     <row r="176" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S176" s="7"/>
       <c r="T176" s="8"/>
       <c r="U176" s="2"/>
-      <c r="AA176" s="2"/>
+      <c r="AC176" s="2"/>
     </row>
     <row r="177" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S177" s="7"/>
       <c r="T177" s="8"/>
       <c r="U177" s="2"/>
-      <c r="AA177" s="2"/>
+      <c r="AC177" s="2"/>
     </row>
     <row r="178" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S178" s="7"/>
       <c r="T178" s="8"/>
       <c r="U178" s="2"/>
+      <c r="AA178" s="2"/>
+      <c r="AC178" s="2"/>
     </row>
     <row r="179" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S179" s="7"/>
       <c r="T179" s="8"/>
       <c r="U179" s="2"/>
+      <c r="AA179" s="2"/>
+      <c r="AC179" s="2"/>
     </row>
     <row r="180" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S180" s="7"/>
@@ -42573,95 +43774,51 @@
       <c r="S181" s="7"/>
       <c r="T181" s="8"/>
       <c r="U181" s="2"/>
-      <c r="AA181" s="2"/>
     </row>
     <row r="182" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S182" s="7"/>
       <c r="T182" s="8"/>
       <c r="U182" s="2"/>
-      <c r="AA182" s="2"/>
-      <c r="AB182" s="2"/>
-      <c r="AD182" s="2"/>
-      <c r="AE182" s="2"/>
-      <c r="AH182" s="2"/>
-      <c r="AI182" s="2"/>
     </row>
     <row r="183" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S183" s="7"/>
       <c r="T183" s="8"/>
       <c r="U183" s="2"/>
       <c r="AA183" s="2"/>
-      <c r="AB183" s="2"/>
-      <c r="AD183" s="2"/>
-      <c r="AE183" s="2"/>
-      <c r="AH183" s="2"/>
-      <c r="AI183" s="2"/>
     </row>
     <row r="184" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S184" s="7"/>
       <c r="T184" s="8"/>
       <c r="U184" s="2"/>
       <c r="AA184" s="2"/>
-      <c r="AB184" s="2"/>
-      <c r="AD184" s="2"/>
-      <c r="AE184" s="2"/>
-      <c r="AH184" s="2"/>
-      <c r="AI184" s="2"/>
     </row>
     <row r="185" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S185" s="7"/>
       <c r="T185" s="8"/>
       <c r="U185" s="2"/>
       <c r="AA185" s="2"/>
-      <c r="AB185" s="2"/>
-      <c r="AD185" s="2"/>
-      <c r="AE185" s="2"/>
-      <c r="AH185" s="2"/>
-      <c r="AI185" s="2"/>
     </row>
     <row r="186" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S186" s="7"/>
       <c r="T186" s="8"/>
       <c r="U186" s="2"/>
-      <c r="AA186" s="2"/>
-      <c r="AB186" s="2"/>
-      <c r="AD186" s="2"/>
-      <c r="AE186" s="2"/>
-      <c r="AH186" s="2"/>
-      <c r="AI186" s="2"/>
     </row>
     <row r="187" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S187" s="7"/>
       <c r="T187" s="8"/>
       <c r="U187" s="2"/>
-      <c r="AA187" s="2"/>
-      <c r="AB187" s="2"/>
-      <c r="AD187" s="2"/>
-      <c r="AE187" s="2"/>
-      <c r="AH187" s="2"/>
-      <c r="AI187" s="2"/>
     </row>
     <row r="188" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S188" s="7"/>
       <c r="T188" s="8"/>
       <c r="U188" s="2"/>
       <c r="AA188" s="2"/>
-      <c r="AB188" s="2"/>
-      <c r="AD188" s="2"/>
-      <c r="AE188" s="2"/>
-      <c r="AH188" s="2"/>
-      <c r="AI188" s="2"/>
     </row>
     <row r="189" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S189" s="7"/>
       <c r="T189" s="8"/>
       <c r="U189" s="2"/>
       <c r="AA189" s="2"/>
-      <c r="AB189" s="2"/>
-      <c r="AD189" s="2"/>
-      <c r="AE189" s="2"/>
-      <c r="AH189" s="2"/>
-      <c r="AI189" s="2"/>
     </row>
     <row r="190" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S190" s="7"/>
@@ -42689,317 +43846,316 @@
       <c r="S192" s="7"/>
       <c r="T192" s="8"/>
       <c r="U192" s="2"/>
-      <c r="W192" s="2"/>
-      <c r="X192" s="2"/>
-      <c r="Y192" s="2"/>
-      <c r="Z192" s="3"/>
       <c r="AA192" s="2"/>
-      <c r="AC192" s="2"/>
-    </row>
-    <row r="193" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="AB192" s="2"/>
+      <c r="AD192" s="2"/>
+      <c r="AE192" s="2"/>
+      <c r="AH192" s="2"/>
+      <c r="AI192" s="2"/>
+    </row>
+    <row r="193" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S193" s="7"/>
       <c r="T193" s="8"/>
       <c r="U193" s="2"/>
-      <c r="V193" s="18"/>
-      <c r="W193" s="2"/>
-      <c r="X193" s="2"/>
-      <c r="Y193" s="2"/>
-      <c r="Z193" s="3"/>
-    </row>
-    <row r="194" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="AA193" s="2"/>
+      <c r="AB193" s="2"/>
+      <c r="AD193" s="2"/>
+      <c r="AE193" s="2"/>
+      <c r="AH193" s="2"/>
+      <c r="AI193" s="2"/>
+    </row>
+    <row r="194" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S194" s="7"/>
       <c r="T194" s="8"/>
       <c r="U194" s="2"/>
-      <c r="V194" s="18"/>
-      <c r="W194" s="2"/>
-      <c r="X194" s="2"/>
-      <c r="Y194" s="2"/>
-      <c r="Z194" s="3"/>
-    </row>
-    <row r="195" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="AA194" s="2"/>
+      <c r="AB194" s="2"/>
+      <c r="AD194" s="2"/>
+      <c r="AE194" s="2"/>
+      <c r="AH194" s="2"/>
+      <c r="AI194" s="2"/>
+    </row>
+    <row r="195" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S195" s="7"/>
       <c r="T195" s="8"/>
       <c r="U195" s="2"/>
-      <c r="V195" s="18"/>
-      <c r="W195" s="2"/>
-      <c r="X195" s="2"/>
-      <c r="Y195" s="2"/>
-      <c r="Z195" s="3"/>
       <c r="AA195" s="2"/>
-    </row>
-    <row r="196" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="AB195" s="2"/>
+      <c r="AD195" s="2"/>
+      <c r="AE195" s="2"/>
+      <c r="AH195" s="2"/>
+      <c r="AI195" s="2"/>
+    </row>
+    <row r="196" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S196" s="7"/>
       <c r="T196" s="8"/>
       <c r="U196" s="2"/>
-      <c r="V196" s="18"/>
-      <c r="W196" s="2"/>
-      <c r="X196" s="2"/>
-      <c r="Y196" s="2"/>
-      <c r="Z196" s="3"/>
       <c r="AA196" s="2"/>
-    </row>
-    <row r="197" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="AB196" s="2"/>
+      <c r="AD196" s="2"/>
+      <c r="AE196" s="2"/>
+      <c r="AH196" s="2"/>
+      <c r="AI196" s="2"/>
+    </row>
+    <row r="197" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S197" s="7"/>
       <c r="T197" s="8"/>
       <c r="U197" s="2"/>
-      <c r="W197" s="2"/>
-      <c r="X197" s="2"/>
-      <c r="Y197" s="2"/>
-      <c r="Z197" s="2"/>
       <c r="AA197" s="2"/>
-      <c r="AC197" s="2"/>
-    </row>
-    <row r="198" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="AB197" s="2"/>
+      <c r="AD197" s="2"/>
+      <c r="AE197" s="2"/>
+      <c r="AH197" s="2"/>
+      <c r="AI197" s="2"/>
+    </row>
+    <row r="198" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S198" s="7"/>
       <c r="T198" s="8"/>
       <c r="U198" s="2"/>
-      <c r="V198" s="18"/>
-      <c r="W198" s="2"/>
-      <c r="X198" s="2"/>
-      <c r="Y198" s="2"/>
-      <c r="Z198" s="2"/>
-      <c r="AC198" s="2"/>
-    </row>
-    <row r="199" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="AA198" s="2"/>
+      <c r="AB198" s="2"/>
+      <c r="AD198" s="2"/>
+      <c r="AE198" s="2"/>
+      <c r="AH198" s="2"/>
+      <c r="AI198" s="2"/>
+    </row>
+    <row r="199" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S199" s="7"/>
       <c r="T199" s="8"/>
       <c r="U199" s="2"/>
-      <c r="V199" s="18"/>
-      <c r="W199" s="2"/>
-      <c r="X199" s="2"/>
-      <c r="Y199" s="2"/>
-      <c r="Z199" s="2"/>
-      <c r="AC199" s="2"/>
-    </row>
-    <row r="200" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="AA199" s="2"/>
+      <c r="AB199" s="2"/>
+      <c r="AD199" s="2"/>
+      <c r="AE199" s="2"/>
+      <c r="AH199" s="2"/>
+      <c r="AI199" s="2"/>
+    </row>
+    <row r="200" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S200" s="7"/>
       <c r="T200" s="8"/>
       <c r="U200" s="2"/>
-      <c r="V200" s="18"/>
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
-      <c r="Z200" s="2"/>
+      <c r="Z200" s="3"/>
       <c r="AA200" s="2"/>
       <c r="AC200" s="2"/>
     </row>
-    <row r="201" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="201" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S201" s="7"/>
       <c r="T201" s="8"/>
       <c r="U201" s="2"/>
-      <c r="V201" s="18"/>
+      <c r="V201" s="2"/>
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
-      <c r="Z201" s="2"/>
-      <c r="AA201" s="2"/>
-      <c r="AC201" s="2"/>
-    </row>
-    <row r="202" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="Z201" s="3"/>
+    </row>
+    <row r="202" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S202" s="7"/>
       <c r="T202" s="8"/>
       <c r="U202" s="2"/>
-      <c r="AA202" s="2"/>
-      <c r="AC202" s="2"/>
-    </row>
-    <row r="203" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="V202" s="2"/>
+      <c r="W202" s="2"/>
+      <c r="X202" s="2"/>
+      <c r="Y202" s="2"/>
+      <c r="Z202" s="3"/>
+    </row>
+    <row r="203" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S203" s="7"/>
       <c r="T203" s="8"/>
       <c r="U203" s="2"/>
-      <c r="AC203" s="2"/>
-    </row>
-    <row r="204" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="V203" s="2"/>
+      <c r="W203" s="2"/>
+      <c r="X203" s="2"/>
+      <c r="Y203" s="2"/>
+      <c r="Z203" s="3"/>
+      <c r="AA203" s="2"/>
+    </row>
+    <row r="204" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S204" s="7"/>
       <c r="T204" s="8"/>
       <c r="U204" s="2"/>
-      <c r="AC204" s="2"/>
-    </row>
-    <row r="205" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="V204" s="2"/>
+      <c r="W204" s="2"/>
+      <c r="X204" s="2"/>
+      <c r="Y204" s="2"/>
+      <c r="Z204" s="3"/>
+      <c r="AA204" s="2"/>
+    </row>
+    <row r="205" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S205" s="7"/>
       <c r="T205" s="8"/>
       <c r="U205" s="2"/>
+      <c r="W205" s="2"/>
+      <c r="X205" s="2"/>
+      <c r="Y205" s="2"/>
+      <c r="Z205" s="2"/>
       <c r="AA205" s="2"/>
       <c r="AC205" s="2"/>
     </row>
-    <row r="206" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="206" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S206" s="7"/>
       <c r="T206" s="8"/>
       <c r="U206" s="2"/>
-      <c r="AA206" s="2"/>
+      <c r="V206" s="2"/>
+      <c r="W206" s="2"/>
+      <c r="X206" s="2"/>
+      <c r="Y206" s="2"/>
+      <c r="Z206" s="2"/>
       <c r="AC206" s="2"/>
     </row>
-    <row r="207" spans="19:29" x14ac:dyDescent="0.2">
+    <row r="207" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S207" s="7"/>
       <c r="T207" s="8"/>
       <c r="U207" s="2"/>
-      <c r="AA207" s="2"/>
-    </row>
-    <row r="208" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="V207" s="2"/>
+      <c r="W207" s="2"/>
+      <c r="X207" s="2"/>
+      <c r="Y207" s="2"/>
+      <c r="Z207" s="2"/>
+      <c r="AC207" s="2"/>
+    </row>
+    <row r="208" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S208" s="7"/>
       <c r="T208" s="8"/>
       <c r="U208" s="2"/>
-    </row>
-    <row r="209" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
+      <c r="X208" s="2"/>
+      <c r="Y208" s="2"/>
+      <c r="Z208" s="2"/>
+      <c r="AA208" s="2"/>
+      <c r="AC208" s="2"/>
+    </row>
+    <row r="209" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S209" s="7"/>
       <c r="T209" s="8"/>
       <c r="U209" s="2"/>
-    </row>
-    <row r="210" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="V209" s="2"/>
+      <c r="W209" s="2"/>
+      <c r="X209" s="2"/>
+      <c r="Y209" s="2"/>
+      <c r="Z209" s="2"/>
+      <c r="AA209" s="2"/>
+      <c r="AC209" s="2"/>
+    </row>
+    <row r="210" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S210" s="7"/>
       <c r="T210" s="8"/>
       <c r="U210" s="2"/>
       <c r="AA210" s="2"/>
-    </row>
-    <row r="211" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AC210" s="2"/>
+    </row>
+    <row r="211" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S211" s="7"/>
       <c r="T211" s="8"/>
       <c r="U211" s="2"/>
-      <c r="AA211" s="2"/>
-    </row>
-    <row r="212" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AC211" s="2"/>
+    </row>
+    <row r="212" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S212" s="7"/>
       <c r="T212" s="8"/>
       <c r="U212" s="2"/>
-      <c r="AA212" s="2"/>
-    </row>
-    <row r="213" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AC212" s="2"/>
+    </row>
+    <row r="213" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S213" s="7"/>
       <c r="T213" s="8"/>
       <c r="U213" s="2"/>
-    </row>
-    <row r="214" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA213" s="2"/>
+      <c r="AC213" s="2"/>
+    </row>
+    <row r="214" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S214" s="7"/>
       <c r="T214" s="8"/>
       <c r="U214" s="2"/>
-    </row>
-    <row r="215" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA214" s="2"/>
+      <c r="AC214" s="2"/>
+    </row>
+    <row r="215" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S215" s="7"/>
       <c r="T215" s="8"/>
       <c r="U215" s="2"/>
       <c r="AA215" s="2"/>
     </row>
-    <row r="216" spans="19:35" x14ac:dyDescent="0.2">
+    <row r="216" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S216" s="7"/>
       <c r="T216" s="8"/>
       <c r="U216" s="2"/>
-      <c r="AA216" s="2"/>
-    </row>
-    <row r="217" spans="19:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S217" s="7"/>
       <c r="T217" s="8"/>
       <c r="U217" s="2"/>
-      <c r="AA217" s="2"/>
-    </row>
-    <row r="218" spans="19:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S218" s="7"/>
       <c r="T218" s="8"/>
       <c r="U218" s="2"/>
-    </row>
-    <row r="219" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA218" s="2"/>
+    </row>
+    <row r="219" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S219" s="7"/>
       <c r="T219" s="8"/>
       <c r="U219" s="2"/>
-    </row>
-    <row r="220" spans="19:35" x14ac:dyDescent="0.2">
+      <c r="AA219" s="2"/>
+    </row>
+    <row r="220" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S220" s="7"/>
       <c r="T220" s="8"/>
       <c r="U220" s="2"/>
       <c r="AA220" s="2"/>
     </row>
-    <row r="221" spans="19:35" x14ac:dyDescent="0.2">
+    <row r="221" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S221" s="7"/>
       <c r="T221" s="8"/>
       <c r="U221" s="2"/>
-      <c r="AA221" s="2"/>
-    </row>
-    <row r="222" spans="19:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S222" s="7"/>
       <c r="T222" s="8"/>
       <c r="U222" s="2"/>
-      <c r="AA222" s="2"/>
-      <c r="AB222" s="2"/>
-      <c r="AD222" s="2"/>
-      <c r="AE222" s="2"/>
-      <c r="AH222" s="2"/>
-      <c r="AI222" s="2"/>
-    </row>
-    <row r="223" spans="19:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S223" s="7"/>
       <c r="T223" s="8"/>
       <c r="U223" s="2"/>
       <c r="AA223" s="2"/>
-      <c r="AB223" s="2"/>
-      <c r="AD223" s="2"/>
-      <c r="AE223" s="2"/>
-      <c r="AH223" s="2"/>
-      <c r="AI223" s="2"/>
-    </row>
-    <row r="224" spans="19:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="19:29" x14ac:dyDescent="0.2">
       <c r="S224" s="7"/>
       <c r="T224" s="8"/>
       <c r="U224" s="2"/>
       <c r="AA224" s="2"/>
-      <c r="AB224" s="2"/>
-      <c r="AD224" s="2"/>
-      <c r="AE224" s="2"/>
-      <c r="AH224" s="2"/>
-      <c r="AI224" s="2"/>
     </row>
     <row r="225" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S225" s="7"/>
       <c r="T225" s="8"/>
       <c r="U225" s="2"/>
       <c r="AA225" s="2"/>
-      <c r="AB225" s="2"/>
-      <c r="AD225" s="2"/>
-      <c r="AE225" s="2"/>
-      <c r="AH225" s="2"/>
-      <c r="AI225" s="2"/>
     </row>
     <row r="226" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S226" s="7"/>
       <c r="T226" s="8"/>
       <c r="U226" s="2"/>
-      <c r="AA226" s="2"/>
-      <c r="AB226" s="2"/>
-      <c r="AD226" s="2"/>
-      <c r="AE226" s="2"/>
-      <c r="AH226" s="2"/>
-      <c r="AI226" s="2"/>
     </row>
     <row r="227" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S227" s="7"/>
       <c r="T227" s="8"/>
       <c r="U227" s="2"/>
-      <c r="AA227" s="2"/>
-      <c r="AB227" s="2"/>
-      <c r="AC227" s="2"/>
-      <c r="AD227" s="2"/>
-      <c r="AE227" s="2"/>
-      <c r="AH227" s="2"/>
-      <c r="AI227" s="2"/>
     </row>
     <row r="228" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S228" s="7"/>
       <c r="T228" s="8"/>
       <c r="U228" s="2"/>
       <c r="AA228" s="2"/>
-      <c r="AB228" s="2"/>
-      <c r="AD228" s="2"/>
-      <c r="AE228" s="2"/>
-      <c r="AH228" s="2"/>
-      <c r="AI228" s="2"/>
     </row>
     <row r="229" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S229" s="7"/>
       <c r="T229" s="8"/>
       <c r="U229" s="2"/>
       <c r="AA229" s="2"/>
-      <c r="AB229" s="2"/>
-      <c r="AD229" s="2"/>
-      <c r="AE229" s="2"/>
-      <c r="AH229" s="2"/>
-      <c r="AI229" s="2"/>
     </row>
     <row r="230" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S230" s="7"/>
@@ -43027,101 +44183,99 @@
       <c r="S232" s="7"/>
       <c r="T232" s="8"/>
       <c r="U232" s="2"/>
-      <c r="W232" s="2"/>
-      <c r="X232" s="2"/>
-      <c r="Y232" s="2"/>
-      <c r="Z232" s="3"/>
       <c r="AA232" s="2"/>
-      <c r="AC232" s="2"/>
+      <c r="AB232" s="2"/>
+      <c r="AD232" s="2"/>
+      <c r="AE232" s="2"/>
+      <c r="AH232" s="2"/>
+      <c r="AI232" s="2"/>
     </row>
     <row r="233" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S233" s="7"/>
       <c r="T233" s="8"/>
       <c r="U233" s="2"/>
-      <c r="V233" s="18"/>
-      <c r="W233" s="2"/>
-      <c r="X233" s="2"/>
-      <c r="Y233" s="2"/>
-      <c r="Z233" s="3"/>
-      <c r="AC233" s="2"/>
+      <c r="AA233" s="2"/>
+      <c r="AB233" s="2"/>
+      <c r="AD233" s="2"/>
+      <c r="AE233" s="2"/>
+      <c r="AH233" s="2"/>
+      <c r="AI233" s="2"/>
     </row>
     <row r="234" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S234" s="7"/>
       <c r="T234" s="8"/>
       <c r="U234" s="2"/>
-      <c r="V234" s="18"/>
-      <c r="W234" s="2"/>
-      <c r="X234" s="2"/>
-      <c r="Y234" s="2"/>
-      <c r="Z234" s="3"/>
-      <c r="AC234" s="2"/>
+      <c r="AA234" s="2"/>
+      <c r="AB234" s="2"/>
+      <c r="AD234" s="2"/>
+      <c r="AE234" s="2"/>
+      <c r="AH234" s="2"/>
+      <c r="AI234" s="2"/>
     </row>
     <row r="235" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S235" s="7"/>
       <c r="T235" s="8"/>
       <c r="U235" s="2"/>
-      <c r="V235" s="18"/>
-      <c r="W235" s="2"/>
-      <c r="X235" s="2"/>
-      <c r="Y235" s="2"/>
-      <c r="Z235" s="3"/>
       <c r="AA235" s="2"/>
+      <c r="AB235" s="2"/>
       <c r="AC235" s="2"/>
+      <c r="AD235" s="2"/>
+      <c r="AE235" s="2"/>
+      <c r="AH235" s="2"/>
+      <c r="AI235" s="2"/>
     </row>
     <row r="236" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S236" s="7"/>
       <c r="T236" s="8"/>
       <c r="U236" s="2"/>
-      <c r="V236" s="18"/>
-      <c r="W236" s="2"/>
-      <c r="X236" s="2"/>
-      <c r="Y236" s="2"/>
-      <c r="Z236" s="3"/>
       <c r="AA236" s="2"/>
-      <c r="AC236" s="2"/>
+      <c r="AB236" s="2"/>
+      <c r="AD236" s="2"/>
+      <c r="AE236" s="2"/>
+      <c r="AH236" s="2"/>
+      <c r="AI236" s="2"/>
     </row>
     <row r="237" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S237" s="7"/>
       <c r="T237" s="8"/>
       <c r="U237" s="2"/>
-      <c r="W237" s="2"/>
-      <c r="X237" s="2"/>
-      <c r="Y237" s="2"/>
-      <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
-      <c r="AC237" s="2"/>
+      <c r="AB237" s="2"/>
+      <c r="AD237" s="2"/>
+      <c r="AE237" s="2"/>
+      <c r="AH237" s="2"/>
+      <c r="AI237" s="2"/>
     </row>
     <row r="238" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S238" s="7"/>
       <c r="T238" s="8"/>
       <c r="U238" s="2"/>
-      <c r="V238" s="18"/>
-      <c r="W238" s="2"/>
-      <c r="X238" s="2"/>
-      <c r="Y238" s="2"/>
-      <c r="Z238" s="2"/>
-      <c r="AC238" s="2"/>
+      <c r="AA238" s="2"/>
+      <c r="AB238" s="2"/>
+      <c r="AD238" s="2"/>
+      <c r="AE238" s="2"/>
+      <c r="AH238" s="2"/>
+      <c r="AI238" s="2"/>
     </row>
     <row r="239" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S239" s="7"/>
       <c r="T239" s="8"/>
       <c r="U239" s="2"/>
-      <c r="V239" s="18"/>
-      <c r="W239" s="2"/>
-      <c r="X239" s="2"/>
-      <c r="Y239" s="2"/>
-      <c r="Z239" s="2"/>
-      <c r="AC239" s="2"/>
+      <c r="AA239" s="2"/>
+      <c r="AB239" s="2"/>
+      <c r="AD239" s="2"/>
+      <c r="AE239" s="2"/>
+      <c r="AH239" s="2"/>
+      <c r="AI239" s="2"/>
     </row>
     <row r="240" spans="19:35" x14ac:dyDescent="0.2">
       <c r="S240" s="7"/>
       <c r="T240" s="8"/>
       <c r="U240" s="2"/>
-      <c r="V240" s="18"/>
       <c r="W240" s="2"/>
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
-      <c r="Z240" s="2"/>
+      <c r="Z240" s="3"/>
       <c r="AA240" s="2"/>
       <c r="AC240" s="2"/>
     </row>
@@ -43129,19 +44283,110 @@
       <c r="S241" s="7"/>
       <c r="T241" s="8"/>
       <c r="U241" s="2"/>
-      <c r="V241" s="18"/>
+      <c r="V241" s="2"/>
       <c r="W241" s="2"/>
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
-      <c r="Z241" s="2"/>
-      <c r="AA241" s="2"/>
+      <c r="Z241" s="3"/>
       <c r="AC241" s="2"/>
     </row>
-    <row r="262" spans="29:29" x14ac:dyDescent="0.2">
-      <c r="AC262" s="2"/>
-    </row>
-    <row r="263" spans="29:29" x14ac:dyDescent="0.2">
-      <c r="AC263" s="2"/>
+    <row r="242" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="S242" s="7"/>
+      <c r="T242" s="8"/>
+      <c r="U242" s="2"/>
+      <c r="V242" s="2"/>
+      <c r="W242" s="2"/>
+      <c r="X242" s="2"/>
+      <c r="Y242" s="2"/>
+      <c r="Z242" s="3"/>
+      <c r="AC242" s="2"/>
+    </row>
+    <row r="243" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="S243" s="7"/>
+      <c r="T243" s="8"/>
+      <c r="U243" s="2"/>
+      <c r="V243" s="2"/>
+      <c r="W243" s="2"/>
+      <c r="X243" s="2"/>
+      <c r="Y243" s="2"/>
+      <c r="Z243" s="3"/>
+      <c r="AA243" s="2"/>
+      <c r="AC243" s="2"/>
+    </row>
+    <row r="244" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="S244" s="7"/>
+      <c r="T244" s="8"/>
+      <c r="U244" s="2"/>
+      <c r="V244" s="2"/>
+      <c r="W244" s="2"/>
+      <c r="X244" s="2"/>
+      <c r="Y244" s="2"/>
+      <c r="Z244" s="3"/>
+      <c r="AA244" s="2"/>
+      <c r="AC244" s="2"/>
+    </row>
+    <row r="245" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="S245" s="7"/>
+      <c r="T245" s="8"/>
+      <c r="U245" s="2"/>
+      <c r="W245" s="2"/>
+      <c r="X245" s="2"/>
+      <c r="Y245" s="2"/>
+      <c r="Z245" s="2"/>
+      <c r="AA245" s="2"/>
+      <c r="AC245" s="2"/>
+    </row>
+    <row r="246" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="S246" s="7"/>
+      <c r="T246" s="8"/>
+      <c r="U246" s="2"/>
+      <c r="V246" s="2"/>
+      <c r="W246" s="2"/>
+      <c r="X246" s="2"/>
+      <c r="Y246" s="2"/>
+      <c r="Z246" s="2"/>
+      <c r="AC246" s="2"/>
+    </row>
+    <row r="247" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="S247" s="7"/>
+      <c r="T247" s="8"/>
+      <c r="U247" s="2"/>
+      <c r="V247" s="2"/>
+      <c r="W247" s="2"/>
+      <c r="X247" s="2"/>
+      <c r="Y247" s="2"/>
+      <c r="Z247" s="2"/>
+      <c r="AC247" s="2"/>
+    </row>
+    <row r="248" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="S248" s="7"/>
+      <c r="T248" s="8"/>
+      <c r="U248" s="2"/>
+      <c r="V248" s="2"/>
+      <c r="W248" s="2"/>
+      <c r="X248" s="2"/>
+      <c r="Y248" s="2"/>
+      <c r="Z248" s="2"/>
+      <c r="AA248" s="2"/>
+      <c r="AC248" s="2"/>
+    </row>
+    <row r="249" spans="19:29" x14ac:dyDescent="0.2">
+      <c r="S249" s="7"/>
+      <c r="T249" s="8"/>
+      <c r="U249" s="2"/>
+      <c r="V249" s="2"/>
+      <c r="W249" s="2"/>
+      <c r="X249" s="2"/>
+      <c r="Y249" s="2"/>
+      <c r="Z249" s="2"/>
+      <c r="AA249" s="2"/>
+      <c r="AC249" s="2"/>
+    </row>
+    <row r="270" spans="29:29" x14ac:dyDescent="0.2">
+      <c r="AC270" s="2"/>
+    </row>
+    <row r="271" spans="29:29" x14ac:dyDescent="0.2">
+      <c r="AC271" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/data/egret_BW.xlsx
+++ b/data/egret_BW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/britanywuuu/Documents/ubc/Temporal Ecology Lab/egret/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2BCE26-3A9E-154E-9E87-1BC91219AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D95EFE-8A1A-0449-B572-CE67521A549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8266" uniqueCount="2637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8267" uniqueCount="2638">
   <si>
     <t>datasetID</t>
   </si>
@@ -7945,6 +7945,9 @@
   </si>
   <si>
     <t>table 5</t>
+  </si>
+  <si>
+    <t>egg plant was used as control</t>
   </si>
 </sst>
 </file>
@@ -32115,9 +32118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AS271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS46" sqref="AS46"/>
+      <selection pane="bottomLeft" activeCell="AS96" sqref="AS96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32286,7 +32289,7 @@
         <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
         <v>2596</v>
@@ -32393,7 +32396,7 @@
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
         <v>2596</v>
@@ -32497,7 +32500,7 @@
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s">
         <v>2596</v>
@@ -32601,7 +32604,7 @@
         <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
         <v>2596</v>
@@ -32702,7 +32705,7 @@
         <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s">
         <v>2596</v>
@@ -32803,7 +32806,7 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
         <v>2596</v>
@@ -32907,7 +32910,7 @@
         <v>41</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
         <v>2596</v>
@@ -33014,7 +33017,7 @@
         <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
         <v>2596</v>
@@ -33121,7 +33124,7 @@
         <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s">
         <v>2596</v>
@@ -33228,7 +33231,7 @@
         <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
         <v>2596</v>
@@ -33332,7 +33335,7 @@
         <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
         <v>2596</v>
@@ -33436,7 +33439,7 @@
         <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
         <v>2596</v>
@@ -33537,7 +33540,7 @@
         <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
         <v>2596</v>
@@ -33638,7 +33641,7 @@
         <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>2596</v>
@@ -33742,7 +33745,7 @@
         <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
         <v>2596</v>
@@ -33846,7 +33849,7 @@
         <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s">
         <v>2596</v>
@@ -33950,7 +33953,7 @@
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
         <v>2596</v>
@@ -34057,7 +34060,7 @@
         <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s">
         <v>2596</v>
@@ -34161,7 +34164,7 @@
         <v>41</v>
       </c>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
         <v>2596</v>
@@ -34265,7 +34268,7 @@
         <v>41</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s">
         <v>2596</v>
@@ -34366,7 +34369,7 @@
         <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s">
         <v>2596</v>
@@ -34467,7 +34470,7 @@
         <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s">
         <v>2596</v>
@@ -34571,7 +34574,7 @@
         <v>41</v>
       </c>
       <c r="H24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s">
         <v>2596</v>
@@ -34675,7 +34678,7 @@
         <v>41</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
         <v>2596</v>
@@ -34779,7 +34782,7 @@
         <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
         <v>2596</v>
@@ -34886,7 +34889,7 @@
         <v>41</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
         <v>2596</v>
@@ -34990,7 +34993,7 @@
         <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s">
         <v>2596</v>
@@ -35094,7 +35097,7 @@
         <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s">
         <v>2596</v>
@@ -35195,7 +35198,7 @@
         <v>41</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s">
         <v>2596</v>
@@ -35296,7 +35299,7 @@
         <v>41</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s">
         <v>2596</v>
@@ -35400,7 +35403,7 @@
         <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s">
         <v>2596</v>
@@ -35504,7 +35507,7 @@
         <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s">
         <v>2596</v>
@@ -35608,7 +35611,7 @@
         <v>41</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s">
         <v>2596</v>
@@ -35715,7 +35718,7 @@
         <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s">
         <v>2596</v>
@@ -35819,7 +35822,7 @@
         <v>41</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s">
         <v>2596</v>
@@ -35923,7 +35926,7 @@
         <v>41</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I37" t="s">
         <v>2596</v>
@@ -36027,7 +36030,7 @@
         <v>41</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s">
         <v>2596</v>
@@ -36131,7 +36134,7 @@
         <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s">
         <v>2596</v>
@@ -36235,7 +36238,7 @@
         <v>41</v>
       </c>
       <c r="H40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s">
         <v>2596</v>
@@ -36339,7 +36342,7 @@
         <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s">
         <v>2596</v>
@@ -36443,7 +36446,7 @@
         <v>41</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s">
         <v>2596</v>
@@ -36547,7 +36550,7 @@
         <v>41</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s">
         <v>2596</v>
@@ -36651,7 +36654,7 @@
         <v>41</v>
       </c>
       <c r="H44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s">
         <v>2596</v>
@@ -36755,7 +36758,7 @@
         <v>41</v>
       </c>
       <c r="H45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s">
         <v>2596</v>
@@ -36859,7 +36862,7 @@
         <v>41</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s">
         <v>2596</v>
@@ -36963,7 +36966,7 @@
         <v>41</v>
       </c>
       <c r="H47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I47" t="s">
         <v>2596</v>
@@ -37067,7 +37070,7 @@
         <v>41</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s">
         <v>2596</v>
@@ -37171,7 +37174,7 @@
         <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s">
         <v>2596</v>
@@ -37275,7 +37278,7 @@
         <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s">
         <v>2596</v>
@@ -37379,7 +37382,7 @@
         <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I51" t="s">
         <v>2596</v>
@@ -37483,7 +37486,7 @@
         <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s">
         <v>2596</v>
@@ -37587,7 +37590,7 @@
         <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I53" t="s">
         <v>2596</v>
@@ -37691,7 +37694,7 @@
         <v>41</v>
       </c>
       <c r="H54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I54" t="s">
         <v>2596</v>
@@ -37795,7 +37798,7 @@
         <v>41</v>
       </c>
       <c r="H55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I55" t="s">
         <v>2596</v>
@@ -37899,7 +37902,7 @@
         <v>41</v>
       </c>
       <c r="H56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I56" t="s">
         <v>2596</v>
@@ -38003,7 +38006,7 @@
         <v>41</v>
       </c>
       <c r="H57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I57" t="s">
         <v>2596</v>
@@ -38107,7 +38110,7 @@
         <v>41</v>
       </c>
       <c r="H58" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I58" t="s">
         <v>2596</v>
@@ -38214,7 +38217,7 @@
         <v>41</v>
       </c>
       <c r="H59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I59" t="s">
         <v>2596</v>
@@ -38321,7 +38324,7 @@
         <v>41</v>
       </c>
       <c r="H60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I60" t="s">
         <v>2596</v>
@@ -38428,7 +38431,7 @@
         <v>41</v>
       </c>
       <c r="H61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I61" t="s">
         <v>2596</v>
@@ -38535,7 +38538,7 @@
         <v>41</v>
       </c>
       <c r="H62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I62" t="s">
         <v>2596</v>
@@ -38642,7 +38645,7 @@
         <v>41</v>
       </c>
       <c r="H63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I63" t="s">
         <v>2596</v>
@@ -38749,7 +38752,7 @@
         <v>41</v>
       </c>
       <c r="H64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I64" t="s">
         <v>2596</v>
@@ -38856,7 +38859,7 @@
         <v>41</v>
       </c>
       <c r="H65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I65" t="s">
         <v>2596</v>
@@ -38963,7 +38966,7 @@
         <v>41</v>
       </c>
       <c r="H66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I66" t="s">
         <v>2596</v>
@@ -39070,7 +39073,7 @@
         <v>41</v>
       </c>
       <c r="H67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I67" t="s">
         <v>2596</v>
@@ -39177,7 +39180,7 @@
         <v>41</v>
       </c>
       <c r="H68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I68" t="s">
         <v>2596</v>
@@ -39284,7 +39287,7 @@
         <v>41</v>
       </c>
       <c r="H69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I69" t="s">
         <v>2596</v>
@@ -39391,7 +39394,7 @@
         <v>41</v>
       </c>
       <c r="H70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I70" t="s">
         <v>2596</v>
@@ -39498,7 +39501,7 @@
         <v>41</v>
       </c>
       <c r="H71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I71" t="s">
         <v>2596</v>
@@ -39605,7 +39608,7 @@
         <v>41</v>
       </c>
       <c r="H72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I72" t="s">
         <v>2596</v>
@@ -39712,7 +39715,7 @@
         <v>41</v>
       </c>
       <c r="H73" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I73" t="s">
         <v>2596</v>
@@ -39819,7 +39822,7 @@
         <v>41</v>
       </c>
       <c r="H74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I74" t="s">
         <v>2596</v>
@@ -39926,7 +39929,7 @@
         <v>41</v>
       </c>
       <c r="H75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I75" t="s">
         <v>2596</v>
@@ -40030,7 +40033,7 @@
         <v>41</v>
       </c>
       <c r="H76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I76" t="s">
         <v>2596</v>
@@ -40134,7 +40137,7 @@
         <v>41</v>
       </c>
       <c r="H77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I77" t="s">
         <v>2596</v>
@@ -40238,7 +40241,7 @@
         <v>41</v>
       </c>
       <c r="H78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I78" t="s">
         <v>2596</v>
@@ -40342,7 +40345,7 @@
         <v>41</v>
       </c>
       <c r="H79" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I79" t="s">
         <v>2596</v>
@@ -40446,7 +40449,7 @@
         <v>41</v>
       </c>
       <c r="H80" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I80" t="s">
         <v>2596</v>
@@ -40550,7 +40553,7 @@
         <v>41</v>
       </c>
       <c r="H81" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I81" t="s">
         <v>2596</v>
@@ -40654,7 +40657,7 @@
         <v>41</v>
       </c>
       <c r="H82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I82" t="s">
         <v>2596</v>
@@ -40758,7 +40761,7 @@
         <v>41</v>
       </c>
       <c r="H83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I83" t="s">
         <v>2596</v>
@@ -40862,7 +40865,7 @@
         <v>41</v>
       </c>
       <c r="H84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I84" t="s">
         <v>2596</v>
@@ -40966,7 +40969,7 @@
         <v>41</v>
       </c>
       <c r="H85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I85" t="s">
         <v>2596</v>
@@ -41070,7 +41073,7 @@
         <v>41</v>
       </c>
       <c r="H86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I86" t="s">
         <v>2596</v>
@@ -41174,7 +41177,7 @@
         <v>41</v>
       </c>
       <c r="H87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I87" t="s">
         <v>2596</v>
@@ -41278,7 +41281,7 @@
         <v>41</v>
       </c>
       <c r="H88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I88" t="s">
         <v>2596</v>
@@ -41382,7 +41385,7 @@
         <v>41</v>
       </c>
       <c r="H89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I89" t="s">
         <v>2596</v>
@@ -41486,7 +41489,7 @@
         <v>41</v>
       </c>
       <c r="H90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I90" t="s">
         <v>2596</v>
@@ -41593,7 +41596,7 @@
         <v>41</v>
       </c>
       <c r="H91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I91" t="s">
         <v>2596</v>
@@ -41700,7 +41703,7 @@
         <v>41</v>
       </c>
       <c r="H92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I92" t="s">
         <v>2596</v>
@@ -41807,7 +41810,7 @@
         <v>41</v>
       </c>
       <c r="H93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I93" t="s">
         <v>2596</v>
@@ -41914,7 +41917,7 @@
         <v>41</v>
       </c>
       <c r="H94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I94" t="s">
         <v>2596</v>
@@ -42021,7 +42024,7 @@
         <v>41</v>
       </c>
       <c r="H95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I95" t="s">
         <v>2596</v>
@@ -42100,6 +42103,9 @@
       </c>
       <c r="AR95" t="s">
         <v>2616</v>
+      </c>
+      <c r="AS95" t="s">
+        <v>2637</v>
       </c>
     </row>
     <row r="96" spans="1:45" x14ac:dyDescent="0.2">
@@ -42125,7 +42131,7 @@
         <v>41</v>
       </c>
       <c r="H96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I96" t="s">
         <v>2596</v>
@@ -42229,7 +42235,7 @@
         <v>41</v>
       </c>
       <c r="H97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I97" t="s">
         <v>2596</v>
@@ -42333,7 +42339,7 @@
         <v>41</v>
       </c>
       <c r="H98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I98" t="s">
         <v>2596</v>
@@ -42437,7 +42443,7 @@
         <v>41</v>
       </c>
       <c r="H99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I99" t="s">
         <v>2596</v>
@@ -42541,7 +42547,7 @@
         <v>41</v>
       </c>
       <c r="H100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I100" t="s">
         <v>2596</v>
@@ -42645,7 +42651,7 @@
         <v>41</v>
       </c>
       <c r="H101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I101" t="s">
         <v>2596</v>
@@ -42749,7 +42755,7 @@
         <v>41</v>
       </c>
       <c r="H102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I102" t="s">
         <v>2596</v>
@@ -42853,7 +42859,7 @@
         <v>41</v>
       </c>
       <c r="H103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I103" t="s">
         <v>2596</v>
@@ -42957,7 +42963,7 @@
         <v>41</v>
       </c>
       <c r="H104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I104" t="s">
         <v>2596</v>
@@ -43011,7 +43017,7 @@
         <v>39</v>
       </c>
       <c r="AJ104" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="AK104">
         <v>95.3</v>
@@ -43061,7 +43067,7 @@
         <v>41</v>
       </c>
       <c r="H105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I105" t="s">
         <v>2596</v>
@@ -43115,7 +43121,7 @@
         <v>39</v>
       </c>
       <c r="AJ105" t="s">
-        <v>2631</v>
+        <v>2626</v>
       </c>
       <c r="AK105">
         <v>14</v>
